--- a/data/trans_orig/IQ23_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IQ23_R-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DF21B900-42C5-4DFF-8938-AF9490FCDFAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{150B9F74-3290-4306-9926-91C0C9B7C629}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{6A564A21-6729-4681-AA14-214D203A8D46}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{53A01A08-25F9-4262-B10C-11F737F12F6E}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="376">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="364">
   <si>
     <t>Menores que duermen las horas recomendadas en función de su edad en 2007 (Tasa respuesta: 99,33%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>50,04%</t>
   </si>
   <si>
-    <t>42,58%</t>
-  </si>
-  <si>
-    <t>57,54%</t>
+    <t>42,07%</t>
+  </si>
+  <si>
+    <t>57,35%</t>
   </si>
   <si>
     <t>52,46%</t>
   </si>
   <si>
-    <t>44,4%</t>
-  </si>
-  <si>
-    <t>59,92%</t>
+    <t>45,26%</t>
+  </si>
+  <si>
+    <t>60,63%</t>
   </si>
   <si>
     <t>51,17%</t>
   </si>
   <si>
-    <t>46,1%</t>
-  </si>
-  <si>
-    <t>56,66%</t>
+    <t>45,8%</t>
+  </si>
+  <si>
+    <t>56,06%</t>
   </si>
   <si>
     <t>NO</t>
@@ -107,28 +107,28 @@
     <t>49,96%</t>
   </si>
   <si>
-    <t>42,46%</t>
-  </si>
-  <si>
-    <t>57,42%</t>
+    <t>42,65%</t>
+  </si>
+  <si>
+    <t>57,93%</t>
   </si>
   <si>
     <t>47,54%</t>
   </si>
   <si>
-    <t>40,08%</t>
-  </si>
-  <si>
-    <t>55,6%</t>
+    <t>39,37%</t>
+  </si>
+  <si>
+    <t>54,74%</t>
   </si>
   <si>
     <t>48,83%</t>
   </si>
   <si>
-    <t>43,34%</t>
-  </si>
-  <si>
-    <t>53,9%</t>
+    <t>43,94%</t>
+  </si>
+  <si>
+    <t>54,2%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,1033 +140,997 @@
     <t>78,54%</t>
   </si>
   <si>
-    <t>74,42%</t>
-  </si>
-  <si>
-    <t>82,45%</t>
+    <t>74,49%</t>
+  </si>
+  <si>
+    <t>82,34%</t>
   </si>
   <si>
     <t>75,7%</t>
   </si>
   <si>
-    <t>70,94%</t>
+    <t>71,11%</t>
+  </si>
+  <si>
+    <t>79,9%</t>
+  </si>
+  <si>
+    <t>77,12%</t>
+  </si>
+  <si>
+    <t>73,91%</t>
+  </si>
+  <si>
+    <t>79,87%</t>
+  </si>
+  <si>
+    <t>21,46%</t>
+  </si>
+  <si>
+    <t>17,66%</t>
+  </si>
+  <si>
+    <t>25,51%</t>
+  </si>
+  <si>
+    <t>24,3%</t>
+  </si>
+  <si>
+    <t>20,1%</t>
+  </si>
+  <si>
+    <t>28,89%</t>
+  </si>
+  <si>
+    <t>22,88%</t>
+  </si>
+  <si>
+    <t>20,13%</t>
+  </si>
+  <si>
+    <t>26,09%</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>73,75%</t>
+  </si>
+  <si>
+    <t>67,19%</t>
+  </si>
+  <si>
+    <t>79,37%</t>
+  </si>
+  <si>
+    <t>78,67%</t>
+  </si>
+  <si>
+    <t>72,9%</t>
+  </si>
+  <si>
+    <t>84,07%</t>
+  </si>
+  <si>
+    <t>76,06%</t>
+  </si>
+  <si>
+    <t>71,41%</t>
+  </si>
+  <si>
+    <t>79,92%</t>
+  </si>
+  <si>
+    <t>26,25%</t>
+  </si>
+  <si>
+    <t>20,63%</t>
+  </si>
+  <si>
+    <t>32,81%</t>
+  </si>
+  <si>
+    <t>21,33%</t>
+  </si>
+  <si>
+    <t>15,93%</t>
+  </si>
+  <si>
+    <t>27,1%</t>
+  </si>
+  <si>
+    <t>23,94%</t>
+  </si>
+  <si>
+    <t>20,08%</t>
+  </si>
+  <si>
+    <t>28,59%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>82,57%</t>
+  </si>
+  <si>
+    <t>77,54%</t>
+  </si>
+  <si>
+    <t>86,24%</t>
+  </si>
+  <si>
+    <t>79,31%</t>
+  </si>
+  <si>
+    <t>73,89%</t>
+  </si>
+  <si>
+    <t>83,73%</t>
+  </si>
+  <si>
+    <t>80,99%</t>
+  </si>
+  <si>
+    <t>77,91%</t>
+  </si>
+  <si>
+    <t>84,21%</t>
+  </si>
+  <si>
+    <t>17,43%</t>
+  </si>
+  <si>
+    <t>13,76%</t>
+  </si>
+  <si>
+    <t>22,46%</t>
+  </si>
+  <si>
+    <t>20,69%</t>
+  </si>
+  <si>
+    <t>16,27%</t>
+  </si>
+  <si>
+    <t>26,11%</t>
+  </si>
+  <si>
+    <t>19,01%</t>
+  </si>
+  <si>
+    <t>15,79%</t>
+  </si>
+  <si>
+    <t>22,09%</t>
+  </si>
+  <si>
+    <t>73,99%</t>
+  </si>
+  <si>
+    <t>71,32%</t>
+  </si>
+  <si>
+    <t>76,6%</t>
+  </si>
+  <si>
+    <t>73,64%</t>
+  </si>
+  <si>
+    <t>71,04%</t>
+  </si>
+  <si>
+    <t>76,25%</t>
+  </si>
+  <si>
+    <t>73,82%</t>
+  </si>
+  <si>
+    <t>71,78%</t>
+  </si>
+  <si>
+    <t>75,58%</t>
+  </si>
+  <si>
+    <t>26,01%</t>
+  </si>
+  <si>
+    <t>23,4%</t>
+  </si>
+  <si>
+    <t>28,68%</t>
+  </si>
+  <si>
+    <t>26,36%</t>
+  </si>
+  <si>
+    <t>23,75%</t>
+  </si>
+  <si>
+    <t>28,96%</t>
+  </si>
+  <si>
+    <t>26,18%</t>
+  </si>
+  <si>
+    <t>24,42%</t>
+  </si>
+  <si>
+    <t>28,22%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores que duermen las horas recomendadas en función de su edad en 2012 (Tasa respuesta: 99,81%)</t>
+  </si>
+  <si>
+    <t>50,14%</t>
+  </si>
+  <si>
+    <t>43,02%</t>
+  </si>
+  <si>
+    <t>57,0%</t>
+  </si>
+  <si>
+    <t>48,31%</t>
+  </si>
+  <si>
+    <t>42,34%</t>
+  </si>
+  <si>
+    <t>55,34%</t>
+  </si>
+  <si>
+    <t>49,22%</t>
+  </si>
+  <si>
+    <t>44,59%</t>
+  </si>
+  <si>
+    <t>54,02%</t>
+  </si>
+  <si>
+    <t>49,86%</t>
+  </si>
+  <si>
+    <t>43,0%</t>
+  </si>
+  <si>
+    <t>56,98%</t>
+  </si>
+  <si>
+    <t>51,69%</t>
+  </si>
+  <si>
+    <t>44,66%</t>
+  </si>
+  <si>
+    <t>57,66%</t>
+  </si>
+  <si>
+    <t>50,78%</t>
+  </si>
+  <si>
+    <t>45,98%</t>
+  </si>
+  <si>
+    <t>55,41%</t>
+  </si>
+  <si>
+    <t>73,29%</t>
+  </si>
+  <si>
+    <t>68,48%</t>
+  </si>
+  <si>
+    <t>77,24%</t>
+  </si>
+  <si>
+    <t>74,25%</t>
+  </si>
+  <si>
+    <t>69,39%</t>
+  </si>
+  <si>
+    <t>78,84%</t>
+  </si>
+  <si>
+    <t>73,74%</t>
+  </si>
+  <si>
+    <t>70,35%</t>
+  </si>
+  <si>
+    <t>76,76%</t>
+  </si>
+  <si>
+    <t>26,71%</t>
+  </si>
+  <si>
+    <t>22,76%</t>
+  </si>
+  <si>
+    <t>31,52%</t>
+  </si>
+  <si>
+    <t>25,75%</t>
+  </si>
+  <si>
+    <t>21,16%</t>
+  </si>
+  <si>
+    <t>30,61%</t>
+  </si>
+  <si>
+    <t>26,26%</t>
+  </si>
+  <si>
+    <t>23,24%</t>
+  </si>
+  <si>
+    <t>29,65%</t>
+  </si>
+  <si>
+    <t>74,55%</t>
+  </si>
+  <si>
+    <t>68,71%</t>
   </si>
   <si>
     <t>79,71%</t>
   </si>
   <si>
-    <t>77,12%</t>
+    <t>78,73%</t>
+  </si>
+  <si>
+    <t>73,16%</t>
+  </si>
+  <si>
+    <t>83,63%</t>
+  </si>
+  <si>
+    <t>76,62%</t>
+  </si>
+  <si>
+    <t>72,23%</t>
+  </si>
+  <si>
+    <t>80,17%</t>
+  </si>
+  <si>
+    <t>25,45%</t>
+  </si>
+  <si>
+    <t>20,29%</t>
+  </si>
+  <si>
+    <t>31,29%</t>
+  </si>
+  <si>
+    <t>21,27%</t>
+  </si>
+  <si>
+    <t>16,37%</t>
+  </si>
+  <si>
+    <t>26,84%</t>
+  </si>
+  <si>
+    <t>23,38%</t>
+  </si>
+  <si>
+    <t>19,83%</t>
+  </si>
+  <si>
+    <t>27,77%</t>
+  </si>
+  <si>
+    <t>83,51%</t>
+  </si>
+  <si>
+    <t>78,66%</t>
+  </si>
+  <si>
+    <t>87,52%</t>
+  </si>
+  <si>
+    <t>82,94%</t>
+  </si>
+  <si>
+    <t>77,73%</t>
+  </si>
+  <si>
+    <t>87,11%</t>
+  </si>
+  <si>
+    <t>83,23%</t>
+  </si>
+  <si>
+    <t>79,77%</t>
+  </si>
+  <si>
+    <t>16,49%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>21,34%</t>
+  </si>
+  <si>
+    <t>17,06%</t>
+  </si>
+  <si>
+    <t>12,89%</t>
+  </si>
+  <si>
+    <t>22,27%</t>
+  </si>
+  <si>
+    <t>16,77%</t>
+  </si>
+  <si>
+    <t>20,23%</t>
+  </si>
+  <si>
+    <t>71,52%</t>
+  </si>
+  <si>
+    <t>69,06%</t>
+  </si>
+  <si>
+    <t>74,3%</t>
+  </si>
+  <si>
+    <t>71,97%</t>
+  </si>
+  <si>
+    <t>69,46%</t>
+  </si>
+  <si>
+    <t>74,59%</t>
+  </si>
+  <si>
+    <t>71,74%</t>
+  </si>
+  <si>
+    <t>69,89%</t>
+  </si>
+  <si>
+    <t>73,7%</t>
+  </si>
+  <si>
+    <t>28,48%</t>
+  </si>
+  <si>
+    <t>25,7%</t>
+  </si>
+  <si>
+    <t>30,94%</t>
+  </si>
+  <si>
+    <t>28,03%</t>
+  </si>
+  <si>
+    <t>25,41%</t>
+  </si>
+  <si>
+    <t>30,54%</t>
+  </si>
+  <si>
+    <t>28,26%</t>
+  </si>
+  <si>
+    <t>26,3%</t>
+  </si>
+  <si>
+    <t>30,11%</t>
+  </si>
+  <si>
+    <t>Menores que duermen las horas recomendadas en función de su edad en 2016 (Tasa respuesta: 99,11%)</t>
+  </si>
+  <si>
+    <t>45,64%</t>
+  </si>
+  <si>
+    <t>38,16%</t>
+  </si>
+  <si>
+    <t>53,24%</t>
+  </si>
+  <si>
+    <t>48,4%</t>
+  </si>
+  <si>
+    <t>41,67%</t>
+  </si>
+  <si>
+    <t>54,79%</t>
+  </si>
+  <si>
+    <t>47,05%</t>
+  </si>
+  <si>
+    <t>42,03%</t>
+  </si>
+  <si>
+    <t>52,1%</t>
+  </si>
+  <si>
+    <t>54,36%</t>
+  </si>
+  <si>
+    <t>46,76%</t>
+  </si>
+  <si>
+    <t>61,84%</t>
+  </si>
+  <si>
+    <t>51,6%</t>
+  </si>
+  <si>
+    <t>45,21%</t>
+  </si>
+  <si>
+    <t>58,33%</t>
+  </si>
+  <si>
+    <t>52,95%</t>
+  </si>
+  <si>
+    <t>47,9%</t>
+  </si>
+  <si>
+    <t>57,97%</t>
+  </si>
+  <si>
+    <t>61,06%</t>
+  </si>
+  <si>
+    <t>55,31%</t>
+  </si>
+  <si>
+    <t>65,64%</t>
+  </si>
+  <si>
+    <t>67,32%</t>
+  </si>
+  <si>
+    <t>62,03%</t>
+  </si>
+  <si>
+    <t>72,14%</t>
+  </si>
+  <si>
+    <t>63,86%</t>
+  </si>
+  <si>
+    <t>60,16%</t>
+  </si>
+  <si>
+    <t>67,12%</t>
+  </si>
+  <si>
+    <t>38,94%</t>
+  </si>
+  <si>
+    <t>34,36%</t>
+  </si>
+  <si>
+    <t>44,69%</t>
+  </si>
+  <si>
+    <t>32,68%</t>
+  </si>
+  <si>
+    <t>27,86%</t>
+  </si>
+  <si>
+    <t>37,97%</t>
+  </si>
+  <si>
+    <t>36,14%</t>
+  </si>
+  <si>
+    <t>32,88%</t>
+  </si>
+  <si>
+    <t>39,84%</t>
+  </si>
+  <si>
+    <t>68,45%</t>
+  </si>
+  <si>
+    <t>79,24%</t>
+  </si>
+  <si>
+    <t>72,39%</t>
+  </si>
+  <si>
+    <t>66,6%</t>
+  </si>
+  <si>
+    <t>77,25%</t>
+  </si>
+  <si>
+    <t>73,13%</t>
+  </si>
+  <si>
+    <t>69,24%</t>
+  </si>
+  <si>
+    <t>76,49%</t>
+  </si>
+  <si>
+    <t>20,76%</t>
+  </si>
+  <si>
+    <t>31,55%</t>
+  </si>
+  <si>
+    <t>27,61%</t>
+  </si>
+  <si>
+    <t>22,75%</t>
+  </si>
+  <si>
+    <t>33,4%</t>
+  </si>
+  <si>
+    <t>26,87%</t>
+  </si>
+  <si>
+    <t>23,51%</t>
+  </si>
+  <si>
+    <t>30,76%</t>
+  </si>
+  <si>
+    <t>83,71%</t>
+  </si>
+  <si>
+    <t>78,64%</t>
+  </si>
+  <si>
+    <t>88,12%</t>
+  </si>
+  <si>
+    <t>81,66%</t>
+  </si>
+  <si>
+    <t>76,89%</t>
+  </si>
+  <si>
+    <t>86,22%</t>
+  </si>
+  <si>
+    <t>82,68%</t>
+  </si>
+  <si>
+    <t>86,11%</t>
+  </si>
+  <si>
+    <t>16,29%</t>
+  </si>
+  <si>
+    <t>11,88%</t>
+  </si>
+  <si>
+    <t>21,36%</t>
+  </si>
+  <si>
+    <t>18,34%</t>
+  </si>
+  <si>
+    <t>13,78%</t>
+  </si>
+  <si>
+    <t>23,11%</t>
+  </si>
+  <si>
+    <t>17,32%</t>
+  </si>
+  <si>
+    <t>13,89%</t>
+  </si>
+  <si>
+    <t>66,95%</t>
+  </si>
+  <si>
+    <t>63,94%</t>
+  </si>
+  <si>
+    <t>69,82%</t>
+  </si>
+  <si>
+    <t>68,73%</t>
+  </si>
+  <si>
+    <t>66,01%</t>
+  </si>
+  <si>
+    <t>71,68%</t>
+  </si>
+  <si>
+    <t>67,82%</t>
+  </si>
+  <si>
+    <t>65,6%</t>
+  </si>
+  <si>
+    <t>69,63%</t>
+  </si>
+  <si>
+    <t>33,05%</t>
+  </si>
+  <si>
+    <t>30,18%</t>
+  </si>
+  <si>
+    <t>36,06%</t>
+  </si>
+  <si>
+    <t>31,27%</t>
+  </si>
+  <si>
+    <t>28,32%</t>
+  </si>
+  <si>
+    <t>33,99%</t>
+  </si>
+  <si>
+    <t>32,18%</t>
+  </si>
+  <si>
+    <t>30,37%</t>
+  </si>
+  <si>
+    <t>34,4%</t>
+  </si>
+  <si>
+    <t>Menores que duermen las horas recomendadas en función de su edad en 2023 (Tasa respuesta: 99,43%)</t>
+  </si>
+  <si>
+    <t>28,17%</t>
+  </si>
+  <si>
+    <t>20,7%</t>
+  </si>
+  <si>
+    <t>37,83%</t>
+  </si>
+  <si>
+    <t>23,76%</t>
+  </si>
+  <si>
+    <t>32,96%</t>
+  </si>
+  <si>
+    <t>25,99%</t>
+  </si>
+  <si>
+    <t>20,26%</t>
+  </si>
+  <si>
+    <t>32,5%</t>
+  </si>
+  <si>
+    <t>71,83%</t>
+  </si>
+  <si>
+    <t>62,17%</t>
+  </si>
+  <si>
+    <t>79,3%</t>
+  </si>
+  <si>
+    <t>76,24%</t>
+  </si>
+  <si>
+    <t>67,04%</t>
   </si>
   <si>
     <t>74,01%</t>
   </si>
   <si>
-    <t>80,17%</t>
-  </si>
-  <si>
-    <t>21,46%</t>
-  </si>
-  <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>25,58%</t>
-  </si>
-  <si>
-    <t>24,3%</t>
-  </si>
-  <si>
-    <t>20,29%</t>
-  </si>
-  <si>
-    <t>29,06%</t>
-  </si>
-  <si>
-    <t>22,88%</t>
-  </si>
-  <si>
-    <t>19,83%</t>
-  </si>
-  <si>
-    <t>25,99%</t>
-  </si>
-  <si>
-    <t>8-11</t>
-  </si>
-  <si>
-    <t>73,75%</t>
-  </si>
-  <si>
-    <t>67,53%</t>
-  </si>
-  <si>
-    <t>79,67%</t>
-  </si>
-  <si>
-    <t>78,67%</t>
-  </si>
-  <si>
-    <t>72,49%</t>
-  </si>
-  <si>
-    <t>84,6%</t>
-  </si>
-  <si>
-    <t>76,06%</t>
-  </si>
-  <si>
-    <t>71,87%</t>
-  </si>
-  <si>
-    <t>80,38%</t>
-  </si>
-  <si>
-    <t>26,25%</t>
-  </si>
-  <si>
-    <t>20,33%</t>
-  </si>
-  <si>
-    <t>32,47%</t>
-  </si>
-  <si>
-    <t>21,33%</t>
-  </si>
-  <si>
-    <t>15,4%</t>
-  </si>
-  <si>
-    <t>27,51%</t>
-  </si>
-  <si>
-    <t>23,94%</t>
-  </si>
-  <si>
-    <t>19,62%</t>
-  </si>
-  <si>
-    <t>28,13%</t>
-  </si>
-  <si>
-    <t>12-15</t>
-  </si>
-  <si>
-    <t>82,57%</t>
-  </si>
-  <si>
-    <t>78,0%</t>
-  </si>
-  <si>
-    <t>86,53%</t>
-  </si>
-  <si>
-    <t>79,31%</t>
-  </si>
-  <si>
-    <t>74,8%</t>
-  </si>
-  <si>
-    <t>83,78%</t>
-  </si>
-  <si>
-    <t>80,99%</t>
-  </si>
-  <si>
-    <t>77,37%</t>
-  </si>
-  <si>
-    <t>83,95%</t>
-  </si>
-  <si>
-    <t>17,43%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>22,0%</t>
-  </si>
-  <si>
-    <t>20,69%</t>
-  </si>
-  <si>
-    <t>16,22%</t>
-  </si>
-  <si>
-    <t>25,2%</t>
-  </si>
-  <si>
-    <t>19,01%</t>
-  </si>
-  <si>
-    <t>16,05%</t>
-  </si>
-  <si>
-    <t>22,63%</t>
-  </si>
-  <si>
-    <t>73,99%</t>
-  </si>
-  <si>
-    <t>71,17%</t>
-  </si>
-  <si>
-    <t>76,53%</t>
-  </si>
-  <si>
-    <t>73,64%</t>
-  </si>
-  <si>
-    <t>70,79%</t>
-  </si>
-  <si>
-    <t>76,09%</t>
-  </si>
-  <si>
-    <t>73,82%</t>
-  </si>
-  <si>
-    <t>71,91%</t>
-  </si>
-  <si>
-    <t>75,93%</t>
-  </si>
-  <si>
-    <t>26,01%</t>
-  </si>
-  <si>
-    <t>23,47%</t>
-  </si>
-  <si>
-    <t>28,83%</t>
-  </si>
-  <si>
-    <t>26,36%</t>
-  </si>
-  <si>
-    <t>23,91%</t>
-  </si>
-  <si>
-    <t>29,21%</t>
-  </si>
-  <si>
-    <t>26,18%</t>
-  </si>
-  <si>
-    <t>24,07%</t>
-  </si>
-  <si>
-    <t>28,09%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores que duermen las horas recomendadas en función de su edad en 2012 (Tasa respuesta: 99,81%)</t>
-  </si>
-  <si>
-    <t>50,14%</t>
-  </si>
-  <si>
-    <t>43,81%</t>
-  </si>
-  <si>
-    <t>57,19%</t>
-  </si>
-  <si>
-    <t>48,31%</t>
-  </si>
-  <si>
-    <t>41,85%</t>
-  </si>
-  <si>
-    <t>54,93%</t>
-  </si>
-  <si>
-    <t>49,22%</t>
-  </si>
-  <si>
-    <t>43,99%</t>
-  </si>
-  <si>
-    <t>54,05%</t>
-  </si>
-  <si>
-    <t>49,86%</t>
-  </si>
-  <si>
-    <t>42,81%</t>
-  </si>
-  <si>
-    <t>56,19%</t>
-  </si>
-  <si>
-    <t>51,69%</t>
-  </si>
-  <si>
-    <t>45,07%</t>
-  </si>
-  <si>
-    <t>58,15%</t>
-  </si>
-  <si>
-    <t>50,78%</t>
-  </si>
-  <si>
-    <t>45,95%</t>
-  </si>
-  <si>
-    <t>56,01%</t>
-  </si>
-  <si>
-    <t>73,29%</t>
-  </si>
-  <si>
-    <t>68,9%</t>
-  </si>
-  <si>
-    <t>77,55%</t>
-  </si>
-  <si>
-    <t>74,25%</t>
-  </si>
-  <si>
-    <t>69,16%</t>
-  </si>
-  <si>
-    <t>78,76%</t>
-  </si>
-  <si>
-    <t>73,74%</t>
+    <t>67,5%</t>
+  </si>
+  <si>
+    <t>79,74%</t>
+  </si>
+  <si>
+    <t>65,18%</t>
+  </si>
+  <si>
+    <t>59,4%</t>
+  </si>
+  <si>
+    <t>71,1%</t>
+  </si>
+  <si>
+    <t>64,08%</t>
+  </si>
+  <si>
+    <t>58,07%</t>
   </si>
   <si>
     <t>70,38%</t>
   </si>
   <si>
-    <t>76,8%</t>
-  </si>
-  <si>
-    <t>26,71%</t>
-  </si>
-  <si>
-    <t>22,45%</t>
-  </si>
-  <si>
-    <t>31,1%</t>
-  </si>
-  <si>
-    <t>25,75%</t>
-  </si>
-  <si>
-    <t>21,24%</t>
-  </si>
-  <si>
-    <t>30,84%</t>
-  </si>
-  <si>
-    <t>26,26%</t>
-  </si>
-  <si>
-    <t>23,2%</t>
+    <t>64,66%</t>
+  </si>
+  <si>
+    <t>59,59%</t>
+  </si>
+  <si>
+    <t>34,82%</t>
+  </si>
+  <si>
+    <t>28,9%</t>
+  </si>
+  <si>
+    <t>40,6%</t>
+  </si>
+  <si>
+    <t>35,92%</t>
   </si>
   <si>
     <t>29,62%</t>
   </si>
   <si>
-    <t>74,55%</t>
-  </si>
-  <si>
-    <t>69,02%</t>
-  </si>
-  <si>
-    <t>80,06%</t>
-  </si>
-  <si>
-    <t>78,73%</t>
-  </si>
-  <si>
-    <t>73,02%</t>
-  </si>
-  <si>
-    <t>83,98%</t>
-  </si>
-  <si>
-    <t>76,62%</t>
-  </si>
-  <si>
-    <t>72,66%</t>
-  </si>
-  <si>
-    <t>80,69%</t>
-  </si>
-  <si>
-    <t>25,45%</t>
-  </si>
-  <si>
-    <t>19,94%</t>
-  </si>
-  <si>
-    <t>30,98%</t>
-  </si>
-  <si>
-    <t>21,27%</t>
-  </si>
-  <si>
-    <t>16,02%</t>
-  </si>
-  <si>
-    <t>26,98%</t>
-  </si>
-  <si>
-    <t>23,38%</t>
-  </si>
-  <si>
-    <t>19,31%</t>
-  </si>
-  <si>
-    <t>27,34%</t>
-  </si>
-  <si>
-    <t>83,51%</t>
-  </si>
-  <si>
-    <t>78,1%</t>
-  </si>
-  <si>
-    <t>87,96%</t>
-  </si>
-  <si>
-    <t>82,94%</t>
-  </si>
-  <si>
-    <t>77,44%</t>
-  </si>
-  <si>
-    <t>87,0%</t>
-  </si>
-  <si>
-    <t>83,23%</t>
-  </si>
-  <si>
-    <t>79,77%</t>
-  </si>
-  <si>
-    <t>86,13%</t>
-  </si>
-  <si>
-    <t>16,49%</t>
-  </si>
-  <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>21,9%</t>
-  </si>
-  <si>
-    <t>17,06%</t>
-  </si>
-  <si>
-    <t>13,0%</t>
-  </si>
-  <si>
-    <t>22,56%</t>
-  </si>
-  <si>
-    <t>16,77%</t>
-  </si>
-  <si>
-    <t>13,87%</t>
-  </si>
-  <si>
-    <t>20,23%</t>
-  </si>
-  <si>
-    <t>71,52%</t>
-  </si>
-  <si>
-    <t>69,01%</t>
-  </si>
-  <si>
-    <t>74,33%</t>
-  </si>
-  <si>
-    <t>71,97%</t>
-  </si>
-  <si>
-    <t>69,24%</t>
-  </si>
-  <si>
-    <t>74,71%</t>
-  </si>
-  <si>
-    <t>71,74%</t>
-  </si>
-  <si>
-    <t>69,99%</t>
-  </si>
-  <si>
-    <t>73,72%</t>
-  </si>
-  <si>
-    <t>28,48%</t>
-  </si>
-  <si>
-    <t>25,67%</t>
-  </si>
-  <si>
-    <t>30,99%</t>
-  </si>
-  <si>
-    <t>28,03%</t>
-  </si>
-  <si>
-    <t>25,29%</t>
-  </si>
-  <si>
-    <t>30,76%</t>
-  </si>
-  <si>
-    <t>28,26%</t>
-  </si>
-  <si>
-    <t>26,28%</t>
-  </si>
-  <si>
-    <t>30,01%</t>
-  </si>
-  <si>
-    <t>Menores que duermen las horas recomendadas en función de su edad en 2015 (Tasa respuesta: 99,11%)</t>
-  </si>
-  <si>
-    <t>45,64%</t>
-  </si>
-  <si>
-    <t>38,26%</t>
-  </si>
-  <si>
-    <t>53,47%</t>
-  </si>
-  <si>
-    <t>48,4%</t>
-  </si>
-  <si>
-    <t>42,27%</t>
-  </si>
-  <si>
-    <t>55,89%</t>
-  </si>
-  <si>
-    <t>47,05%</t>
-  </si>
-  <si>
-    <t>42,33%</t>
-  </si>
-  <si>
-    <t>52,26%</t>
-  </si>
-  <si>
-    <t>54,36%</t>
-  </si>
-  <si>
-    <t>46,53%</t>
-  </si>
-  <si>
-    <t>61,74%</t>
-  </si>
-  <si>
-    <t>51,6%</t>
-  </si>
-  <si>
-    <t>44,11%</t>
-  </si>
-  <si>
-    <t>57,73%</t>
-  </si>
-  <si>
-    <t>52,95%</t>
-  </si>
-  <si>
-    <t>47,74%</t>
-  </si>
-  <si>
-    <t>57,67%</t>
-  </si>
-  <si>
-    <t>61,06%</t>
-  </si>
-  <si>
-    <t>56,28%</t>
-  </si>
-  <si>
-    <t>65,86%</t>
-  </si>
-  <si>
-    <t>67,32%</t>
-  </si>
-  <si>
-    <t>62,11%</t>
-  </si>
-  <si>
-    <t>72,36%</t>
-  </si>
-  <si>
-    <t>63,86%</t>
-  </si>
-  <si>
-    <t>60,3%</t>
-  </si>
-  <si>
-    <t>67,4%</t>
-  </si>
-  <si>
-    <t>38,94%</t>
-  </si>
-  <si>
-    <t>34,14%</t>
-  </si>
-  <si>
-    <t>43,72%</t>
-  </si>
-  <si>
-    <t>32,68%</t>
-  </si>
-  <si>
-    <t>27,64%</t>
-  </si>
-  <si>
-    <t>37,89%</t>
-  </si>
-  <si>
-    <t>36,14%</t>
-  </si>
-  <si>
-    <t>32,6%</t>
-  </si>
-  <si>
-    <t>39,7%</t>
-  </si>
-  <si>
-    <t>73,89%</t>
-  </si>
-  <si>
-    <t>68,35%</t>
-  </si>
-  <si>
-    <t>79,09%</t>
-  </si>
-  <si>
-    <t>72,39%</t>
-  </si>
-  <si>
-    <t>67,36%</t>
-  </si>
-  <si>
-    <t>77,51%</t>
-  </si>
-  <si>
-    <t>73,13%</t>
-  </si>
-  <si>
-    <t>69,29%</t>
-  </si>
-  <si>
-    <t>76,96%</t>
-  </si>
-  <si>
-    <t>26,11%</t>
-  </si>
-  <si>
-    <t>20,91%</t>
-  </si>
-  <si>
-    <t>31,65%</t>
-  </si>
-  <si>
-    <t>27,61%</t>
-  </si>
-  <si>
-    <t>22,49%</t>
-  </si>
-  <si>
-    <t>32,64%</t>
-  </si>
-  <si>
-    <t>26,87%</t>
-  </si>
-  <si>
-    <t>23,04%</t>
-  </si>
-  <si>
-    <t>30,71%</t>
-  </si>
-  <si>
-    <t>83,71%</t>
-  </si>
-  <si>
-    <t>78,37%</t>
-  </si>
-  <si>
-    <t>88,01%</t>
-  </si>
-  <si>
-    <t>81,66%</t>
-  </si>
-  <si>
-    <t>76,57%</t>
-  </si>
-  <si>
-    <t>85,99%</t>
-  </si>
-  <si>
-    <t>82,68%</t>
-  </si>
-  <si>
-    <t>79,03%</t>
-  </si>
-  <si>
-    <t>86,11%</t>
-  </si>
-  <si>
-    <t>16,29%</t>
-  </si>
-  <si>
-    <t>11,99%</t>
-  </si>
-  <si>
-    <t>21,63%</t>
-  </si>
-  <si>
-    <t>18,34%</t>
-  </si>
-  <si>
-    <t>14,01%</t>
-  </si>
-  <si>
-    <t>23,43%</t>
-  </si>
-  <si>
-    <t>17,32%</t>
-  </si>
-  <si>
-    <t>13,89%</t>
-  </si>
-  <si>
-    <t>20,97%</t>
-  </si>
-  <si>
-    <t>66,95%</t>
-  </si>
-  <si>
-    <t>63,9%</t>
-  </si>
-  <si>
-    <t>69,67%</t>
-  </si>
-  <si>
-    <t>68,73%</t>
-  </si>
-  <si>
-    <t>66,08%</t>
-  </si>
-  <si>
-    <t>71,42%</t>
-  </si>
-  <si>
-    <t>67,82%</t>
-  </si>
-  <si>
-    <t>66,02%</t>
-  </si>
-  <si>
-    <t>70,02%</t>
-  </si>
-  <si>
-    <t>33,05%</t>
-  </si>
-  <si>
-    <t>30,33%</t>
-  </si>
-  <si>
-    <t>36,1%</t>
-  </si>
-  <si>
-    <t>31,27%</t>
-  </si>
-  <si>
-    <t>28,58%</t>
-  </si>
-  <si>
-    <t>33,92%</t>
-  </si>
-  <si>
-    <t>32,18%</t>
-  </si>
-  <si>
-    <t>29,98%</t>
-  </si>
-  <si>
-    <t>33,98%</t>
-  </si>
-  <si>
-    <t>Menores que duermen las horas recomendadas en función de su edad en 2023 (Tasa respuesta: 99,43%)</t>
-  </si>
-  <si>
-    <t>28,17%</t>
-  </si>
-  <si>
-    <t>19,27%</t>
-  </si>
-  <si>
-    <t>37,19%</t>
-  </si>
-  <si>
-    <t>23,76%</t>
-  </si>
-  <si>
-    <t>16,24%</t>
-  </si>
-  <si>
-    <t>31,55%</t>
-  </si>
-  <si>
-    <t>20,25%</t>
-  </si>
-  <si>
-    <t>31,96%</t>
-  </si>
-  <si>
-    <t>71,83%</t>
-  </si>
-  <si>
-    <t>62,81%</t>
-  </si>
-  <si>
-    <t>80,73%</t>
-  </si>
-  <si>
-    <t>76,24%</t>
-  </si>
-  <si>
-    <t>68,45%</t>
-  </si>
-  <si>
-    <t>83,76%</t>
-  </si>
-  <si>
-    <t>68,04%</t>
-  </si>
-  <si>
-    <t>79,75%</t>
-  </si>
-  <si>
-    <t>65,18%</t>
-  </si>
-  <si>
-    <t>58,24%</t>
-  </si>
-  <si>
-    <t>70,64%</t>
-  </si>
-  <si>
-    <t>64,08%</t>
-  </si>
-  <si>
-    <t>57,31%</t>
-  </si>
-  <si>
-    <t>69,37%</t>
-  </si>
-  <si>
-    <t>64,66%</t>
-  </si>
-  <si>
-    <t>60,02%</t>
-  </si>
-  <si>
-    <t>68,84%</t>
-  </si>
-  <si>
-    <t>34,82%</t>
-  </si>
-  <si>
-    <t>29,36%</t>
-  </si>
-  <si>
-    <t>41,76%</t>
-  </si>
-  <si>
-    <t>35,92%</t>
-  </si>
-  <si>
-    <t>30,63%</t>
-  </si>
-  <si>
-    <t>42,69%</t>
+    <t>41,93%</t>
   </si>
   <si>
     <t>35,34%</t>
   </si>
   <si>
-    <t>31,16%</t>
-  </si>
-  <si>
-    <t>39,98%</t>
+    <t>40,41%</t>
   </si>
   <si>
     <t>70,45%</t>
   </si>
   <si>
-    <t>64,12%</t>
+    <t>75,91%</t>
+  </si>
+  <si>
+    <t>76,91%</t>
+  </si>
+  <si>
+    <t>70,56%</t>
+  </si>
+  <si>
+    <t>81,91%</t>
+  </si>
+  <si>
+    <t>73,47%</t>
+  </si>
+  <si>
+    <t>69,1%</t>
+  </si>
+  <si>
+    <t>77,67%</t>
+  </si>
+  <si>
+    <t>29,55%</t>
+  </si>
+  <si>
+    <t>24,09%</t>
+  </si>
+  <si>
+    <t>23,09%</t>
+  </si>
+  <si>
+    <t>18,09%</t>
+  </si>
+  <si>
+    <t>29,44%</t>
+  </si>
+  <si>
+    <t>26,53%</t>
+  </si>
+  <si>
+    <t>22,33%</t>
+  </si>
+  <si>
+    <t>30,9%</t>
+  </si>
+  <si>
+    <t>81,16%</t>
   </si>
   <si>
     <t>75,9%</t>
   </si>
   <si>
-    <t>76,91%</t>
-  </si>
-  <si>
-    <t>70,59%</t>
-  </si>
-  <si>
-    <t>82,06%</t>
-  </si>
-  <si>
-    <t>73,47%</t>
-  </si>
-  <si>
-    <t>68,75%</t>
-  </si>
-  <si>
-    <t>77,11%</t>
-  </si>
-  <si>
-    <t>29,55%</t>
+    <t>85,67%</t>
+  </si>
+  <si>
+    <t>76,31%</t>
+  </si>
+  <si>
+    <t>85,07%</t>
+  </si>
+  <si>
+    <t>81,08%</t>
+  </si>
+  <si>
+    <t>77,7%</t>
+  </si>
+  <si>
+    <t>84,32%</t>
+  </si>
+  <si>
+    <t>18,84%</t>
+  </si>
+  <si>
+    <t>14,33%</t>
   </si>
   <si>
     <t>24,1%</t>
   </si>
   <si>
-    <t>35,88%</t>
-  </si>
-  <si>
-    <t>23,09%</t>
-  </si>
-  <si>
-    <t>17,94%</t>
-  </si>
-  <si>
-    <t>29,41%</t>
-  </si>
-  <si>
-    <t>26,53%</t>
-  </si>
-  <si>
-    <t>22,89%</t>
-  </si>
-  <si>
-    <t>31,25%</t>
-  </si>
-  <si>
-    <t>81,16%</t>
-  </si>
-  <si>
-    <t>75,67%</t>
-  </si>
-  <si>
-    <t>85,43%</t>
-  </si>
-  <si>
-    <t>76,46%</t>
-  </si>
-  <si>
-    <t>85,18%</t>
-  </si>
-  <si>
-    <t>81,08%</t>
-  </si>
-  <si>
-    <t>77,39%</t>
-  </si>
-  <si>
-    <t>84,04%</t>
-  </si>
-  <si>
-    <t>18,84%</t>
-  </si>
-  <si>
-    <t>14,57%</t>
-  </si>
-  <si>
-    <t>24,33%</t>
-  </si>
-  <si>
-    <t>14,82%</t>
-  </si>
-  <si>
-    <t>23,54%</t>
+    <t>14,93%</t>
+  </si>
+  <si>
+    <t>23,69%</t>
   </si>
   <si>
     <t>18,92%</t>
   </si>
   <si>
-    <t>15,96%</t>
-  </si>
-  <si>
-    <t>22,61%</t>
+    <t>15,68%</t>
+  </si>
+  <si>
+    <t>22,3%</t>
   </si>
   <si>
     <t>70,03%</t>
   </si>
   <si>
-    <t>66,83%</t>
-  </si>
-  <si>
-    <t>73,04%</t>
+    <t>66,99%</t>
+  </si>
+  <si>
+    <t>73,4%</t>
   </si>
   <si>
     <t>70,7%</t>
   </si>
   <si>
-    <t>67,85%</t>
-  </si>
-  <si>
-    <t>73,78%</t>
-  </si>
-  <si>
-    <t>70,35%</t>
-  </si>
-  <si>
-    <t>68,36%</t>
-  </si>
-  <si>
-    <t>72,55%</t>
+    <t>67,87%</t>
+  </si>
+  <si>
+    <t>73,66%</t>
+  </si>
+  <si>
+    <t>68,13%</t>
+  </si>
+  <si>
+    <t>72,42%</t>
   </si>
   <si>
     <t>29,97%</t>
   </si>
   <si>
-    <t>26,96%</t>
-  </si>
-  <si>
-    <t>33,17%</t>
+    <t>26,6%</t>
+  </si>
+  <si>
+    <t>33,01%</t>
   </si>
   <si>
     <t>29,3%</t>
   </si>
   <si>
-    <t>26,22%</t>
-  </si>
-  <si>
-    <t>32,15%</t>
-  </si>
-  <si>
-    <t>29,65%</t>
-  </si>
-  <si>
-    <t>27,45%</t>
-  </si>
-  <si>
-    <t>31,64%</t>
+    <t>26,34%</t>
+  </si>
+  <si>
+    <t>32,13%</t>
+  </si>
+  <si>
+    <t>27,58%</t>
+  </si>
+  <si>
+    <t>31,87%</t>
   </si>
 </sst>
 </file>
@@ -1578,7 +1542,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E55B37E0-B607-43BD-92EF-9CF1F8C46E25}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DDE453D-9CBF-4744-82BC-B1438B4D2DDA}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2485,7 +2449,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46D60A28-6C27-45DC-8CBC-CB87DEA32063}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A7837B3-FFE0-41A9-9CDF-9484DE3092EC}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2776,7 +2740,7 @@
         <v>252</v>
       </c>
       <c r="I7" s="7">
-        <v>174836</v>
+        <v>174837</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>129</v>
@@ -2878,7 +2842,7 @@
         <v>339</v>
       </c>
       <c r="I9" s="7">
-        <v>235463</v>
+        <v>235464</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3110,7 +3074,7 @@
         <v>169</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>170</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3125,13 +3089,13 @@
         <v>29559</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="H14" s="7">
         <v>41</v>
@@ -3140,13 +3104,13 @@
         <v>29234</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>176</v>
       </c>
       <c r="M14" s="7">
         <v>84</v>
@@ -3155,13 +3119,13 @@
         <v>58793</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3229,13 +3193,13 @@
         <v>537955</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>182</v>
       </c>
       <c r="H16" s="7">
         <v>731</v>
@@ -3244,13 +3208,13 @@
         <v>510951</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>185</v>
       </c>
       <c r="M16" s="7">
         <v>1497</v>
@@ -3259,13 +3223,13 @@
         <v>1048906</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3280,13 +3244,13 @@
         <v>214216</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>191</v>
       </c>
       <c r="H17" s="7">
         <v>292</v>
@@ -3295,13 +3259,13 @@
         <v>198978</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>194</v>
       </c>
       <c r="M17" s="7">
         <v>598</v>
@@ -3310,13 +3274,13 @@
         <v>413194</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3392,7 +3356,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AD39F79-A09F-4E0F-8B9B-D57506C156E8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9483FCA1-6152-43BC-BDBC-31CE0266E13C}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3409,7 +3373,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3516,13 +3480,13 @@
         <v>56425</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>201</v>
       </c>
       <c r="H4" s="7">
         <v>99</v>
@@ -3531,13 +3495,13 @@
         <v>62608</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>204</v>
       </c>
       <c r="M4" s="7">
         <v>181</v>
@@ -3546,13 +3510,13 @@
         <v>119033</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3567,13 +3531,13 @@
         <v>67206</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>210</v>
       </c>
       <c r="H5" s="7">
         <v>108</v>
@@ -3582,13 +3546,13 @@
         <v>66759</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>211</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>213</v>
       </c>
       <c r="M5" s="7">
         <v>212</v>
@@ -3597,13 +3561,13 @@
         <v>133966</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>214</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3671,13 +3635,13 @@
         <v>157198</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>217</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>219</v>
       </c>
       <c r="H7" s="7">
         <v>220</v>
@@ -3686,13 +3650,13 @@
         <v>140167</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>220</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>222</v>
       </c>
       <c r="M7" s="7">
         <v>455</v>
@@ -3701,13 +3665,13 @@
         <v>297364</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>223</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3722,13 +3686,13 @@
         <v>100237</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>226</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>228</v>
       </c>
       <c r="H8" s="7">
         <v>108</v>
@@ -3737,13 +3701,13 @@
         <v>68043</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>229</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>231</v>
       </c>
       <c r="M8" s="7">
         <v>252</v>
@@ -3752,13 +3716,13 @@
         <v>168281</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>232</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3826,13 +3790,13 @@
         <v>137972</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>235</v>
+        <v>74</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="H10" s="7">
         <v>197</v>
@@ -3841,13 +3805,13 @@
         <v>136738</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="M10" s="7">
         <v>389</v>
@@ -3856,13 +3820,13 @@
         <v>274710</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3877,13 +3841,13 @@
         <v>48754</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>244</v>
+        <v>84</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="H11" s="7">
         <v>75</v>
@@ -3892,13 +3856,13 @@
         <v>52161</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="M11" s="7">
         <v>143</v>
@@ -3907,13 +3871,13 @@
         <v>100916</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3981,13 +3945,13 @@
         <v>142681</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="H13" s="7">
         <v>200</v>
@@ -3996,13 +3960,13 @@
         <v>141082</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="M13" s="7">
         <v>393</v>
@@ -4011,13 +3975,13 @@
         <v>283763</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>260</v>
+        <v>163</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4032,13 +3996,13 @@
         <v>27768</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="H14" s="7">
         <v>45</v>
@@ -4047,13 +4011,13 @@
         <v>31695</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="M14" s="7">
         <v>82</v>
@@ -4062,13 +4026,13 @@
         <v>59463</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>270</v>
+        <v>172</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4136,13 +4100,13 @@
         <v>494276</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="H16" s="7">
         <v>716</v>
@@ -4151,13 +4115,13 @@
         <v>480594</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="M16" s="7">
         <v>1418</v>
@@ -4166,13 +4130,13 @@
         <v>974870</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4187,13 +4151,13 @@
         <v>243966</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="H17" s="7">
         <v>336</v>
@@ -4202,13 +4166,13 @@
         <v>218659</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="M17" s="7">
         <v>689</v>
@@ -4217,13 +4181,13 @@
         <v>462625</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4299,7 +4263,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31DC0536-C872-400D-AEA0-A629D24DD9F7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1776BBDB-F874-4237-B609-70BE2D154F0D}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4316,7 +4280,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4423,13 +4387,13 @@
         <v>16481</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="H4" s="7">
         <v>28</v>
@@ -4438,13 +4402,13 @@
         <v>13525</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>294</v>
+        <v>83</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="M4" s="7">
         <v>62</v>
@@ -4453,13 +4417,13 @@
         <v>30006</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>49</v>
+        <v>289</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4474,13 +4438,13 @@
         <v>42022</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="H5" s="7">
         <v>80</v>
@@ -4489,13 +4453,13 @@
         <v>43406</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>303</v>
+        <v>75</v>
       </c>
       <c r="M5" s="7">
         <v>162</v>
@@ -4504,13 +4468,13 @@
         <v>85428</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>39</v>
+        <v>297</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4578,13 +4542,13 @@
         <v>114253</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="H7" s="7">
         <v>158</v>
@@ -4593,13 +4557,13 @@
         <v>101739</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="M7" s="7">
         <v>331</v>
@@ -4608,13 +4572,13 @@
         <v>215992</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>314</v>
+        <v>127</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4629,13 +4593,13 @@
         <v>61046</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="H8" s="7">
         <v>100</v>
@@ -4644,13 +4608,13 @@
         <v>57026</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="M8" s="7">
         <v>203</v>
@@ -4659,13 +4623,13 @@
         <v>118071</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>322</v>
+        <v>137</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4733,13 +4697,13 @@
         <v>141656</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>325</v>
+        <v>303</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="H10" s="7">
         <v>179</v>
@@ -4748,13 +4712,13 @@
         <v>135453</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="M10" s="7">
         <v>346</v>
@@ -4763,13 +4727,13 @@
         <v>277109</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4784,13 +4748,13 @@
         <v>59419</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>335</v>
+        <v>311</v>
       </c>
       <c r="H11" s="7">
         <v>54</v>
@@ -4799,13 +4763,13 @@
         <v>40660</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
       <c r="M11" s="7">
         <v>129</v>
@@ -4814,13 +4778,13 @@
         <v>100079</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>341</v>
+        <v>331</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4888,13 +4852,13 @@
         <v>234595</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>343</v>
+        <v>333</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
       <c r="H13" s="7">
         <v>265</v>
@@ -4906,10 +4870,10 @@
         <v>76</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="M13" s="7">
         <v>543</v>
@@ -4918,13 +4882,13 @@
         <v>441557</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>347</v>
+        <v>337</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>348</v>
+        <v>338</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>349</v>
+        <v>339</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4939,13 +4903,13 @@
         <v>54441</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
       <c r="H14" s="7">
         <v>70</v>
@@ -4957,10 +4921,10 @@
         <v>85</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>353</v>
+        <v>343</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="M14" s="7">
         <v>133</v>
@@ -4969,13 +4933,13 @@
         <v>103008</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>355</v>
+        <v>345</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>356</v>
+        <v>346</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>357</v>
+        <v>347</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5043,13 +5007,13 @@
         <v>506986</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>358</v>
+        <v>348</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>359</v>
+        <v>349</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="H16" s="7">
         <v>630</v>
@@ -5058,13 +5022,13 @@
         <v>457678</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>361</v>
+        <v>351</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="M16" s="7">
         <v>1282</v>
@@ -5073,13 +5037,13 @@
         <v>964664</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>364</v>
+        <v>133</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>365</v>
+        <v>354</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>366</v>
+        <v>355</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5094,13 +5058,13 @@
         <v>216927</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>367</v>
+        <v>356</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>368</v>
+        <v>357</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="H17" s="7">
         <v>304</v>
@@ -5109,13 +5073,13 @@
         <v>189660</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>371</v>
+        <v>360</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>372</v>
+        <v>361</v>
       </c>
       <c r="M17" s="7">
         <v>627</v>
@@ -5124,13 +5088,13 @@
         <v>406587</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>373</v>
+        <v>143</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>375</v>
+        <v>363</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/IQ23_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IQ23_R-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{150B9F74-3290-4306-9926-91C0C9B7C629}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{884D4E7D-1E82-4E27-876F-F12920195C9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{53A01A08-25F9-4262-B10C-11F737F12F6E}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{B894DB58-B666-4655-AEF3-1A4D07178176}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -44,10 +44,10 @@
     <t>Menores que duermen las horas recomendadas en función de su edad en 2007 (Tasa respuesta: 99,33%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -71,1066 +71,1066 @@
     <t>0-2</t>
   </si>
   <si>
-    <t>SÍ</t>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>52,46%</t>
+  </si>
+  <si>
+    <t>44,67%</t>
+  </si>
+  <si>
+    <t>60,59%</t>
   </si>
   <si>
     <t>50,04%</t>
   </si>
   <si>
+    <t>43,09%</t>
+  </si>
+  <si>
+    <t>57,58%</t>
+  </si>
+  <si>
+    <t>51,17%</t>
+  </si>
+  <si>
+    <t>46,19%</t>
+  </si>
+  <si>
+    <t>56,7%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>47,54%</t>
+  </si>
+  <si>
+    <t>39,41%</t>
+  </si>
+  <si>
+    <t>55,33%</t>
+  </si>
+  <si>
+    <t>49,96%</t>
+  </si>
+  <si>
+    <t>42,42%</t>
+  </si>
+  <si>
+    <t>56,91%</t>
+  </si>
+  <si>
+    <t>48,83%</t>
+  </si>
+  <si>
+    <t>43,3%</t>
+  </si>
+  <si>
+    <t>53,81%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>75,7%</t>
+  </si>
+  <si>
+    <t>71,05%</t>
+  </si>
+  <si>
+    <t>79,89%</t>
+  </si>
+  <si>
+    <t>78,54%</t>
+  </si>
+  <si>
+    <t>74,34%</t>
+  </si>
+  <si>
+    <t>82,49%</t>
+  </si>
+  <si>
+    <t>77,12%</t>
+  </si>
+  <si>
+    <t>73,88%</t>
+  </si>
+  <si>
+    <t>79,95%</t>
+  </si>
+  <si>
+    <t>24,3%</t>
+  </si>
+  <si>
+    <t>20,11%</t>
+  </si>
+  <si>
+    <t>28,95%</t>
+  </si>
+  <si>
+    <t>21,46%</t>
+  </si>
+  <si>
+    <t>17,51%</t>
+  </si>
+  <si>
+    <t>25,66%</t>
+  </si>
+  <si>
+    <t>22,88%</t>
+  </si>
+  <si>
+    <t>20,05%</t>
+  </si>
+  <si>
+    <t>26,12%</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>78,67%</t>
+  </si>
+  <si>
+    <t>72,72%</t>
+  </si>
+  <si>
+    <t>84,29%</t>
+  </si>
+  <si>
+    <t>73,75%</t>
+  </si>
+  <si>
+    <t>67,42%</t>
+  </si>
+  <si>
+    <t>79,21%</t>
+  </si>
+  <si>
+    <t>76,06%</t>
+  </si>
+  <si>
+    <t>71,96%</t>
+  </si>
+  <si>
+    <t>79,76%</t>
+  </si>
+  <si>
+    <t>21,33%</t>
+  </si>
+  <si>
+    <t>15,71%</t>
+  </si>
+  <si>
+    <t>27,28%</t>
+  </si>
+  <si>
+    <t>26,25%</t>
+  </si>
+  <si>
+    <t>20,79%</t>
+  </si>
+  <si>
+    <t>32,58%</t>
+  </si>
+  <si>
+    <t>23,94%</t>
+  </si>
+  <si>
+    <t>20,24%</t>
+  </si>
+  <si>
+    <t>28,04%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>79,31%</t>
+  </si>
+  <si>
+    <t>84,05%</t>
+  </si>
+  <si>
+    <t>82,57%</t>
+  </si>
+  <si>
+    <t>77,55%</t>
+  </si>
+  <si>
+    <t>86,31%</t>
+  </si>
+  <si>
+    <t>80,99%</t>
+  </si>
+  <si>
+    <t>77,38%</t>
+  </si>
+  <si>
+    <t>84,04%</t>
+  </si>
+  <si>
+    <t>20,69%</t>
+  </si>
+  <si>
+    <t>15,95%</t>
+  </si>
+  <si>
+    <t>17,43%</t>
+  </si>
+  <si>
+    <t>13,69%</t>
+  </si>
+  <si>
+    <t>22,45%</t>
+  </si>
+  <si>
+    <t>19,01%</t>
+  </si>
+  <si>
+    <t>15,96%</t>
+  </si>
+  <si>
+    <t>22,62%</t>
+  </si>
+  <si>
+    <t>73,64%</t>
+  </si>
+  <si>
+    <t>71,17%</t>
+  </si>
+  <si>
+    <t>76,38%</t>
+  </si>
+  <si>
+    <t>73,99%</t>
+  </si>
+  <si>
+    <t>71,33%</t>
+  </si>
+  <si>
+    <t>76,62%</t>
+  </si>
+  <si>
+    <t>73,82%</t>
+  </si>
+  <si>
+    <t>71,97%</t>
+  </si>
+  <si>
+    <t>75,8%</t>
+  </si>
+  <si>
+    <t>26,36%</t>
+  </si>
+  <si>
+    <t>23,62%</t>
+  </si>
+  <si>
+    <t>28,83%</t>
+  </si>
+  <si>
+    <t>26,01%</t>
+  </si>
+  <si>
+    <t>23,38%</t>
+  </si>
+  <si>
+    <t>28,67%</t>
+  </si>
+  <si>
+    <t>26,18%</t>
+  </si>
+  <si>
+    <t>24,2%</t>
+  </si>
+  <si>
+    <t>28,03%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores que duermen las horas recomendadas en función de su edad en 2012 (Tasa respuesta: 99,81%)</t>
+  </si>
+  <si>
+    <t>48,31%</t>
+  </si>
+  <si>
+    <t>40,75%</t>
+  </si>
+  <si>
+    <t>55,4%</t>
+  </si>
+  <si>
+    <t>50,14%</t>
+  </si>
+  <si>
+    <t>42,84%</t>
+  </si>
+  <si>
+    <t>57,26%</t>
+  </si>
+  <si>
+    <t>49,22%</t>
+  </si>
+  <si>
+    <t>44,65%</t>
+  </si>
+  <si>
+    <t>54,15%</t>
+  </si>
+  <si>
+    <t>51,69%</t>
+  </si>
+  <si>
+    <t>44,6%</t>
+  </si>
+  <si>
+    <t>59,25%</t>
+  </si>
+  <si>
+    <t>49,86%</t>
+  </si>
+  <si>
+    <t>42,74%</t>
+  </si>
+  <si>
+    <t>57,16%</t>
+  </si>
+  <si>
+    <t>50,78%</t>
+  </si>
+  <si>
+    <t>45,85%</t>
+  </si>
+  <si>
+    <t>55,35%</t>
+  </si>
+  <si>
+    <t>74,25%</t>
+  </si>
+  <si>
+    <t>69,47%</t>
+  </si>
+  <si>
+    <t>78,76%</t>
+  </si>
+  <si>
+    <t>73,29%</t>
+  </si>
+  <si>
+    <t>68,68%</t>
+  </si>
+  <si>
+    <t>77,74%</t>
+  </si>
+  <si>
+    <t>73,74%</t>
+  </si>
+  <si>
+    <t>70,49%</t>
+  </si>
+  <si>
+    <t>77,02%</t>
+  </si>
+  <si>
+    <t>25,75%</t>
+  </si>
+  <si>
+    <t>21,24%</t>
+  </si>
+  <si>
+    <t>30,53%</t>
+  </si>
+  <si>
+    <t>26,71%</t>
+  </si>
+  <si>
+    <t>22,26%</t>
+  </si>
+  <si>
+    <t>31,32%</t>
+  </si>
+  <si>
+    <t>26,26%</t>
+  </si>
+  <si>
+    <t>22,98%</t>
+  </si>
+  <si>
+    <t>29,51%</t>
+  </si>
+  <si>
+    <t>78,73%</t>
+  </si>
+  <si>
+    <t>73,11%</t>
+  </si>
+  <si>
+    <t>83,68%</t>
+  </si>
+  <si>
+    <t>74,55%</t>
+  </si>
+  <si>
+    <t>68,02%</t>
+  </si>
+  <si>
+    <t>79,7%</t>
+  </si>
+  <si>
+    <t>72,59%</t>
+  </si>
+  <si>
+    <t>80,56%</t>
+  </si>
+  <si>
+    <t>21,27%</t>
+  </si>
+  <si>
+    <t>16,32%</t>
+  </si>
+  <si>
+    <t>26,89%</t>
+  </si>
+  <si>
+    <t>25,45%</t>
+  </si>
+  <si>
+    <t>20,3%</t>
+  </si>
+  <si>
+    <t>31,98%</t>
+  </si>
+  <si>
+    <t>19,44%</t>
+  </si>
+  <si>
+    <t>27,41%</t>
+  </si>
+  <si>
+    <t>82,94%</t>
+  </si>
+  <si>
+    <t>77,62%</t>
+  </si>
+  <si>
+    <t>87,59%</t>
+  </si>
+  <si>
+    <t>83,51%</t>
+  </si>
+  <si>
+    <t>78,87%</t>
+  </si>
+  <si>
+    <t>87,74%</t>
+  </si>
+  <si>
+    <t>83,23%</t>
+  </si>
+  <si>
+    <t>86,61%</t>
+  </si>
+  <si>
+    <t>17,06%</t>
+  </si>
+  <si>
+    <t>12,41%</t>
+  </si>
+  <si>
+    <t>22,38%</t>
+  </si>
+  <si>
+    <t>16,49%</t>
+  </si>
+  <si>
+    <t>12,26%</t>
+  </si>
+  <si>
+    <t>21,13%</t>
+  </si>
+  <si>
+    <t>16,77%</t>
+  </si>
+  <si>
+    <t>13,39%</t>
+  </si>
+  <si>
+    <t>69,15%</t>
+  </si>
+  <si>
+    <t>74,47%</t>
+  </si>
+  <si>
+    <t>71,52%</t>
+  </si>
+  <si>
+    <t>68,73%</t>
+  </si>
+  <si>
+    <t>74,11%</t>
+  </si>
+  <si>
+    <t>71,74%</t>
+  </si>
+  <si>
+    <t>69,71%</t>
+  </si>
+  <si>
+    <t>73,46%</t>
+  </si>
+  <si>
+    <t>25,53%</t>
+  </si>
+  <si>
+    <t>30,85%</t>
+  </si>
+  <si>
+    <t>28,48%</t>
+  </si>
+  <si>
+    <t>25,89%</t>
+  </si>
+  <si>
+    <t>31,27%</t>
+  </si>
+  <si>
+    <t>28,26%</t>
+  </si>
+  <si>
+    <t>26,54%</t>
+  </si>
+  <si>
+    <t>30,29%</t>
+  </si>
+  <si>
+    <t>Menores que duermen las horas recomendadas en función de su edad en 2016 (Tasa respuesta: 99,11%)</t>
+  </si>
+  <si>
+    <t>48,4%</t>
+  </si>
+  <si>
+    <t>41,18%</t>
+  </si>
+  <si>
+    <t>55,62%</t>
+  </si>
+  <si>
+    <t>45,64%</t>
+  </si>
+  <si>
+    <t>38,31%</t>
+  </si>
+  <si>
+    <t>52,7%</t>
+  </si>
+  <si>
+    <t>47,05%</t>
+  </si>
+  <si>
+    <t>41,45%</t>
+  </si>
+  <si>
+    <t>51,65%</t>
+  </si>
+  <si>
+    <t>51,6%</t>
+  </si>
+  <si>
+    <t>44,38%</t>
+  </si>
+  <si>
+    <t>58,82%</t>
+  </si>
+  <si>
+    <t>54,36%</t>
+  </si>
+  <si>
+    <t>47,3%</t>
+  </si>
+  <si>
+    <t>61,69%</t>
+  </si>
+  <si>
+    <t>52,95%</t>
+  </si>
+  <si>
+    <t>48,35%</t>
+  </si>
+  <si>
+    <t>58,55%</t>
+  </si>
+  <si>
+    <t>67,32%</t>
+  </si>
+  <si>
+    <t>62,25%</t>
+  </si>
+  <si>
+    <t>72,26%</t>
+  </si>
+  <si>
+    <t>61,06%</t>
+  </si>
+  <si>
+    <t>55,48%</t>
+  </si>
+  <si>
+    <t>65,44%</t>
+  </si>
+  <si>
+    <t>63,86%</t>
+  </si>
+  <si>
+    <t>60,54%</t>
+  </si>
+  <si>
+    <t>67,47%</t>
+  </si>
+  <si>
+    <t>32,68%</t>
+  </si>
+  <si>
+    <t>27,74%</t>
+  </si>
+  <si>
+    <t>37,75%</t>
+  </si>
+  <si>
+    <t>38,94%</t>
+  </si>
+  <si>
+    <t>34,56%</t>
+  </si>
+  <si>
+    <t>44,52%</t>
+  </si>
+  <si>
+    <t>36,14%</t>
+  </si>
+  <si>
+    <t>32,53%</t>
+  </si>
+  <si>
+    <t>39,46%</t>
+  </si>
+  <si>
+    <t>72,39%</t>
+  </si>
+  <si>
+    <t>66,79%</t>
+  </si>
+  <si>
+    <t>77,65%</t>
+  </si>
+  <si>
+    <t>73,89%</t>
+  </si>
+  <si>
+    <t>68,27%</t>
+  </si>
+  <si>
+    <t>78,94%</t>
+  </si>
+  <si>
+    <t>73,13%</t>
+  </si>
+  <si>
+    <t>68,96%</t>
+  </si>
+  <si>
+    <t>76,35%</t>
+  </si>
+  <si>
+    <t>27,61%</t>
+  </si>
+  <si>
+    <t>22,35%</t>
+  </si>
+  <si>
+    <t>33,21%</t>
+  </si>
+  <si>
+    <t>26,11%</t>
+  </si>
+  <si>
+    <t>21,06%</t>
+  </si>
+  <si>
+    <t>31,73%</t>
+  </si>
+  <si>
+    <t>26,87%</t>
+  </si>
+  <si>
+    <t>23,65%</t>
+  </si>
+  <si>
+    <t>31,04%</t>
+  </si>
+  <si>
+    <t>81,66%</t>
+  </si>
+  <si>
+    <t>76,37%</t>
+  </si>
+  <si>
+    <t>86,22%</t>
+  </si>
+  <si>
+    <t>83,71%</t>
+  </si>
+  <si>
+    <t>78,58%</t>
+  </si>
+  <si>
+    <t>88,07%</t>
+  </si>
+  <si>
+    <t>82,68%</t>
+  </si>
+  <si>
+    <t>78,75%</t>
+  </si>
+  <si>
+    <t>85,82%</t>
+  </si>
+  <si>
+    <t>18,34%</t>
+  </si>
+  <si>
+    <t>13,78%</t>
+  </si>
+  <si>
+    <t>23,63%</t>
+  </si>
+  <si>
+    <t>16,29%</t>
+  </si>
+  <si>
+    <t>11,93%</t>
+  </si>
+  <si>
+    <t>21,42%</t>
+  </si>
+  <si>
+    <t>17,32%</t>
+  </si>
+  <si>
+    <t>14,18%</t>
+  </si>
+  <si>
+    <t>21,25%</t>
+  </si>
+  <si>
+    <t>65,99%</t>
+  </si>
+  <si>
+    <t>71,6%</t>
+  </si>
+  <si>
+    <t>66,95%</t>
+  </si>
+  <si>
+    <t>64,18%</t>
+  </si>
+  <si>
+    <t>69,86%</t>
+  </si>
+  <si>
+    <t>67,82%</t>
+  </si>
+  <si>
+    <t>65,75%</t>
+  </si>
+  <si>
+    <t>69,67%</t>
+  </si>
+  <si>
+    <t>28,4%</t>
+  </si>
+  <si>
+    <t>34,01%</t>
+  </si>
+  <si>
+    <t>33,05%</t>
+  </si>
+  <si>
+    <t>30,14%</t>
+  </si>
+  <si>
+    <t>35,82%</t>
+  </si>
+  <si>
+    <t>32,18%</t>
+  </si>
+  <si>
+    <t>30,33%</t>
+  </si>
+  <si>
+    <t>34,25%</t>
+  </si>
+  <si>
+    <t>Menores que duermen las horas recomendadas en función de su edad en 2023 (Tasa respuesta: 99,43%)</t>
+  </si>
+  <si>
+    <t>23,37%</t>
+  </si>
+  <si>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>32,65%</t>
+  </si>
+  <si>
+    <t>28,06%</t>
+  </si>
+  <si>
+    <t>19,95%</t>
+  </si>
+  <si>
+    <t>36,87%</t>
+  </si>
+  <si>
+    <t>25,8%</t>
+  </si>
+  <si>
+    <t>20,19%</t>
+  </si>
+  <si>
+    <t>31,99%</t>
+  </si>
+  <si>
+    <t>76,63%</t>
+  </si>
+  <si>
+    <t>67,35%</t>
+  </si>
+  <si>
+    <t>83,57%</t>
+  </si>
+  <si>
+    <t>71,94%</t>
+  </si>
+  <si>
+    <t>63,13%</t>
+  </si>
+  <si>
+    <t>80,05%</t>
+  </si>
+  <si>
+    <t>74,2%</t>
+  </si>
+  <si>
+    <t>68,01%</t>
+  </si>
+  <si>
+    <t>79,81%</t>
+  </si>
+  <si>
+    <t>64,08%</t>
+  </si>
+  <si>
+    <t>58,13%</t>
+  </si>
+  <si>
+    <t>70,18%</t>
+  </si>
+  <si>
+    <t>64,34%</t>
+  </si>
+  <si>
+    <t>57,93%</t>
+  </si>
+  <si>
+    <t>70,08%</t>
+  </si>
+  <si>
+    <t>64,22%</t>
+  </si>
+  <si>
+    <t>59,42%</t>
+  </si>
+  <si>
+    <t>68,29%</t>
+  </si>
+  <si>
+    <t>35,92%</t>
+  </si>
+  <si>
+    <t>29,82%</t>
+  </si>
+  <si>
+    <t>41,87%</t>
+  </si>
+  <si>
+    <t>35,66%</t>
+  </si>
+  <si>
+    <t>29,92%</t>
+  </si>
+  <si>
     <t>42,07%</t>
   </si>
   <si>
-    <t>57,35%</t>
-  </si>
-  <si>
-    <t>52,46%</t>
-  </si>
-  <si>
-    <t>45,26%</t>
-  </si>
-  <si>
-    <t>60,63%</t>
-  </si>
-  <si>
-    <t>51,17%</t>
-  </si>
-  <si>
-    <t>45,8%</t>
-  </si>
-  <si>
-    <t>56,06%</t>
-  </si>
-  <si>
-    <t>NO</t>
-  </si>
-  <si>
-    <t>49,96%</t>
-  </si>
-  <si>
-    <t>42,65%</t>
-  </si>
-  <si>
-    <t>57,93%</t>
-  </si>
-  <si>
-    <t>47,54%</t>
-  </si>
-  <si>
-    <t>39,37%</t>
-  </si>
-  <si>
-    <t>54,74%</t>
-  </si>
-  <si>
-    <t>48,83%</t>
-  </si>
-  <si>
-    <t>43,94%</t>
-  </si>
-  <si>
-    <t>54,2%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>3-7</t>
-  </si>
-  <si>
-    <t>78,54%</t>
-  </si>
-  <si>
-    <t>74,49%</t>
-  </si>
-  <si>
-    <t>82,34%</t>
-  </si>
-  <si>
-    <t>75,7%</t>
-  </si>
-  <si>
-    <t>71,11%</t>
-  </si>
-  <si>
-    <t>79,9%</t>
-  </si>
-  <si>
-    <t>77,12%</t>
-  </si>
-  <si>
-    <t>73,91%</t>
-  </si>
-  <si>
-    <t>79,87%</t>
-  </si>
-  <si>
-    <t>21,46%</t>
-  </si>
-  <si>
-    <t>17,66%</t>
-  </si>
-  <si>
-    <t>25,51%</t>
-  </si>
-  <si>
-    <t>24,3%</t>
-  </si>
-  <si>
-    <t>20,1%</t>
-  </si>
-  <si>
-    <t>28,89%</t>
-  </si>
-  <si>
-    <t>22,88%</t>
-  </si>
-  <si>
-    <t>20,13%</t>
-  </si>
-  <si>
-    <t>26,09%</t>
-  </si>
-  <si>
-    <t>8-11</t>
-  </si>
-  <si>
-    <t>73,75%</t>
-  </si>
-  <si>
-    <t>67,19%</t>
-  </si>
-  <si>
-    <t>79,37%</t>
-  </si>
-  <si>
-    <t>78,67%</t>
-  </si>
-  <si>
-    <t>72,9%</t>
-  </si>
-  <si>
-    <t>84,07%</t>
-  </si>
-  <si>
-    <t>76,06%</t>
-  </si>
-  <si>
-    <t>71,41%</t>
-  </si>
-  <si>
-    <t>79,92%</t>
-  </si>
-  <si>
-    <t>26,25%</t>
-  </si>
-  <si>
-    <t>20,63%</t>
-  </si>
-  <si>
-    <t>32,81%</t>
-  </si>
-  <si>
-    <t>21,33%</t>
-  </si>
-  <si>
-    <t>15,93%</t>
-  </si>
-  <si>
-    <t>27,1%</t>
-  </si>
-  <si>
-    <t>23,94%</t>
-  </si>
-  <si>
-    <t>20,08%</t>
-  </si>
-  <si>
-    <t>28,59%</t>
-  </si>
-  <si>
-    <t>12-15</t>
-  </si>
-  <si>
-    <t>82,57%</t>
-  </si>
-  <si>
-    <t>77,54%</t>
-  </si>
-  <si>
-    <t>86,24%</t>
-  </si>
-  <si>
-    <t>79,31%</t>
-  </si>
-  <si>
-    <t>73,89%</t>
-  </si>
-  <si>
-    <t>83,73%</t>
-  </si>
-  <si>
-    <t>80,99%</t>
-  </si>
-  <si>
-    <t>77,91%</t>
-  </si>
-  <si>
-    <t>84,21%</t>
-  </si>
-  <si>
-    <t>17,43%</t>
-  </si>
-  <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>22,46%</t>
-  </si>
-  <si>
-    <t>20,69%</t>
-  </si>
-  <si>
-    <t>16,27%</t>
-  </si>
-  <si>
-    <t>26,11%</t>
-  </si>
-  <si>
-    <t>19,01%</t>
-  </si>
-  <si>
-    <t>15,79%</t>
-  </si>
-  <si>
-    <t>22,09%</t>
-  </si>
-  <si>
-    <t>73,99%</t>
-  </si>
-  <si>
-    <t>71,32%</t>
-  </si>
-  <si>
-    <t>76,6%</t>
-  </si>
-  <si>
-    <t>73,64%</t>
-  </si>
-  <si>
-    <t>71,04%</t>
-  </si>
-  <si>
-    <t>76,25%</t>
-  </si>
-  <si>
-    <t>73,82%</t>
-  </si>
-  <si>
-    <t>71,78%</t>
-  </si>
-  <si>
-    <t>75,58%</t>
-  </si>
-  <si>
-    <t>26,01%</t>
-  </si>
-  <si>
-    <t>23,4%</t>
-  </si>
-  <si>
-    <t>28,68%</t>
-  </si>
-  <si>
-    <t>26,36%</t>
-  </si>
-  <si>
-    <t>23,75%</t>
-  </si>
-  <si>
-    <t>28,96%</t>
-  </si>
-  <si>
-    <t>26,18%</t>
-  </si>
-  <si>
-    <t>24,42%</t>
-  </si>
-  <si>
-    <t>28,22%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores que duermen las horas recomendadas en función de su edad en 2012 (Tasa respuesta: 99,81%)</t>
-  </si>
-  <si>
-    <t>50,14%</t>
-  </si>
-  <si>
-    <t>43,02%</t>
-  </si>
-  <si>
-    <t>57,0%</t>
-  </si>
-  <si>
-    <t>48,31%</t>
-  </si>
-  <si>
-    <t>42,34%</t>
-  </si>
-  <si>
-    <t>55,34%</t>
-  </si>
-  <si>
-    <t>49,22%</t>
-  </si>
-  <si>
-    <t>44,59%</t>
-  </si>
-  <si>
-    <t>54,02%</t>
-  </si>
-  <si>
-    <t>49,86%</t>
-  </si>
-  <si>
-    <t>43,0%</t>
-  </si>
-  <si>
-    <t>56,98%</t>
-  </si>
-  <si>
-    <t>51,69%</t>
-  </si>
-  <si>
-    <t>44,66%</t>
-  </si>
-  <si>
-    <t>57,66%</t>
-  </si>
-  <si>
-    <t>50,78%</t>
-  </si>
-  <si>
-    <t>45,98%</t>
-  </si>
-  <si>
-    <t>55,41%</t>
-  </si>
-  <si>
-    <t>73,29%</t>
-  </si>
-  <si>
-    <t>68,48%</t>
-  </si>
-  <si>
-    <t>77,24%</t>
-  </si>
-  <si>
-    <t>74,25%</t>
-  </si>
-  <si>
-    <t>69,39%</t>
-  </si>
-  <si>
-    <t>78,84%</t>
-  </si>
-  <si>
-    <t>73,74%</t>
-  </si>
-  <si>
-    <t>70,35%</t>
-  </si>
-  <si>
-    <t>76,76%</t>
-  </si>
-  <si>
-    <t>26,71%</t>
-  </si>
-  <si>
-    <t>22,76%</t>
-  </si>
-  <si>
-    <t>31,52%</t>
-  </si>
-  <si>
-    <t>25,75%</t>
-  </si>
-  <si>
-    <t>21,16%</t>
-  </si>
-  <si>
-    <t>30,61%</t>
-  </si>
-  <si>
-    <t>26,26%</t>
-  </si>
-  <si>
-    <t>23,24%</t>
-  </si>
-  <si>
-    <t>29,65%</t>
-  </si>
-  <si>
-    <t>74,55%</t>
-  </si>
-  <si>
-    <t>68,71%</t>
-  </si>
-  <si>
-    <t>79,71%</t>
-  </si>
-  <si>
-    <t>78,73%</t>
-  </si>
-  <si>
-    <t>73,16%</t>
-  </si>
-  <si>
-    <t>83,63%</t>
-  </si>
-  <si>
-    <t>76,62%</t>
-  </si>
-  <si>
-    <t>72,23%</t>
-  </si>
-  <si>
-    <t>80,17%</t>
-  </si>
-  <si>
-    <t>25,45%</t>
-  </si>
-  <si>
-    <t>20,29%</t>
-  </si>
-  <si>
-    <t>31,29%</t>
-  </si>
-  <si>
-    <t>21,27%</t>
-  </si>
-  <si>
-    <t>16,37%</t>
-  </si>
-  <si>
-    <t>26,84%</t>
-  </si>
-  <si>
-    <t>23,38%</t>
-  </si>
-  <si>
-    <t>19,83%</t>
-  </si>
-  <si>
-    <t>27,77%</t>
-  </si>
-  <si>
-    <t>83,51%</t>
-  </si>
-  <si>
-    <t>78,66%</t>
-  </si>
-  <si>
-    <t>87,52%</t>
-  </si>
-  <si>
-    <t>82,94%</t>
-  </si>
-  <si>
-    <t>77,73%</t>
-  </si>
-  <si>
-    <t>87,11%</t>
-  </si>
-  <si>
-    <t>83,23%</t>
-  </si>
-  <si>
-    <t>79,77%</t>
-  </si>
-  <si>
-    <t>16,49%</t>
-  </si>
-  <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>21,34%</t>
-  </si>
-  <si>
-    <t>17,06%</t>
-  </si>
-  <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>22,27%</t>
-  </si>
-  <si>
-    <t>16,77%</t>
-  </si>
-  <si>
-    <t>20,23%</t>
-  </si>
-  <si>
-    <t>71,52%</t>
-  </si>
-  <si>
-    <t>69,06%</t>
-  </si>
-  <si>
-    <t>74,3%</t>
-  </si>
-  <si>
-    <t>71,97%</t>
-  </si>
-  <si>
-    <t>69,46%</t>
-  </si>
-  <si>
-    <t>74,59%</t>
-  </si>
-  <si>
-    <t>71,74%</t>
-  </si>
-  <si>
-    <t>69,89%</t>
-  </si>
-  <si>
-    <t>73,7%</t>
-  </si>
-  <si>
-    <t>28,48%</t>
-  </si>
-  <si>
-    <t>25,7%</t>
-  </si>
-  <si>
-    <t>30,94%</t>
-  </si>
-  <si>
-    <t>28,03%</t>
-  </si>
-  <si>
-    <t>25,41%</t>
-  </si>
-  <si>
-    <t>30,54%</t>
-  </si>
-  <si>
-    <t>28,26%</t>
-  </si>
-  <si>
-    <t>26,3%</t>
-  </si>
-  <si>
-    <t>30,11%</t>
-  </si>
-  <si>
-    <t>Menores que duermen las horas recomendadas en función de su edad en 2016 (Tasa respuesta: 99,11%)</t>
-  </si>
-  <si>
-    <t>45,64%</t>
-  </si>
-  <si>
-    <t>38,16%</t>
-  </si>
-  <si>
-    <t>53,24%</t>
-  </si>
-  <si>
-    <t>48,4%</t>
-  </si>
-  <si>
-    <t>41,67%</t>
-  </si>
-  <si>
-    <t>54,79%</t>
-  </si>
-  <si>
-    <t>47,05%</t>
-  </si>
-  <si>
-    <t>42,03%</t>
-  </si>
-  <si>
-    <t>52,1%</t>
-  </si>
-  <si>
-    <t>54,36%</t>
-  </si>
-  <si>
-    <t>46,76%</t>
-  </si>
-  <si>
-    <t>61,84%</t>
-  </si>
-  <si>
-    <t>51,6%</t>
-  </si>
-  <si>
-    <t>45,21%</t>
-  </si>
-  <si>
-    <t>58,33%</t>
-  </si>
-  <si>
-    <t>52,95%</t>
-  </si>
-  <si>
-    <t>47,9%</t>
-  </si>
-  <si>
-    <t>57,97%</t>
-  </si>
-  <si>
-    <t>61,06%</t>
-  </si>
-  <si>
-    <t>55,31%</t>
-  </si>
-  <si>
-    <t>65,64%</t>
-  </si>
-  <si>
-    <t>67,32%</t>
-  </si>
-  <si>
-    <t>62,03%</t>
-  </si>
-  <si>
-    <t>72,14%</t>
-  </si>
-  <si>
-    <t>63,86%</t>
-  </si>
-  <si>
-    <t>60,16%</t>
-  </si>
-  <si>
-    <t>67,12%</t>
-  </si>
-  <si>
-    <t>38,94%</t>
-  </si>
-  <si>
-    <t>34,36%</t>
-  </si>
-  <si>
-    <t>44,69%</t>
-  </si>
-  <si>
-    <t>32,68%</t>
-  </si>
-  <si>
-    <t>27,86%</t>
-  </si>
-  <si>
-    <t>37,97%</t>
-  </si>
-  <si>
-    <t>36,14%</t>
-  </si>
-  <si>
-    <t>32,88%</t>
-  </si>
-  <si>
-    <t>39,84%</t>
-  </si>
-  <si>
-    <t>68,45%</t>
-  </si>
-  <si>
-    <t>79,24%</t>
-  </si>
-  <si>
-    <t>72,39%</t>
-  </si>
-  <si>
-    <t>66,6%</t>
-  </si>
-  <si>
-    <t>77,25%</t>
-  </si>
-  <si>
-    <t>73,13%</t>
-  </si>
-  <si>
-    <t>69,24%</t>
-  </si>
-  <si>
-    <t>76,49%</t>
-  </si>
-  <si>
-    <t>20,76%</t>
-  </si>
-  <si>
-    <t>31,55%</t>
-  </si>
-  <si>
-    <t>27,61%</t>
-  </si>
-  <si>
-    <t>22,75%</t>
-  </si>
-  <si>
-    <t>33,4%</t>
-  </si>
-  <si>
-    <t>26,87%</t>
-  </si>
-  <si>
-    <t>23,51%</t>
-  </si>
-  <si>
-    <t>30,76%</t>
-  </si>
-  <si>
-    <t>83,71%</t>
-  </si>
-  <si>
-    <t>78,64%</t>
-  </si>
-  <si>
-    <t>88,12%</t>
-  </si>
-  <si>
-    <t>81,66%</t>
-  </si>
-  <si>
-    <t>76,89%</t>
-  </si>
-  <si>
-    <t>86,22%</t>
-  </si>
-  <si>
-    <t>82,68%</t>
-  </si>
-  <si>
-    <t>86,11%</t>
-  </si>
-  <si>
-    <t>16,29%</t>
-  </si>
-  <si>
-    <t>11,88%</t>
-  </si>
-  <si>
-    <t>21,36%</t>
-  </si>
-  <si>
-    <t>18,34%</t>
-  </si>
-  <si>
-    <t>13,78%</t>
-  </si>
-  <si>
-    <t>23,11%</t>
-  </si>
-  <si>
-    <t>17,32%</t>
-  </si>
-  <si>
-    <t>13,89%</t>
-  </si>
-  <si>
-    <t>66,95%</t>
-  </si>
-  <si>
-    <t>63,94%</t>
-  </si>
-  <si>
-    <t>69,82%</t>
-  </si>
-  <si>
-    <t>68,73%</t>
-  </si>
-  <si>
-    <t>66,01%</t>
-  </si>
-  <si>
-    <t>71,68%</t>
-  </si>
-  <si>
-    <t>67,82%</t>
-  </si>
-  <si>
-    <t>65,6%</t>
-  </si>
-  <si>
-    <t>69,63%</t>
-  </si>
-  <si>
-    <t>33,05%</t>
-  </si>
-  <si>
-    <t>30,18%</t>
-  </si>
-  <si>
-    <t>36,06%</t>
-  </si>
-  <si>
-    <t>31,27%</t>
-  </si>
-  <si>
-    <t>28,32%</t>
-  </si>
-  <si>
-    <t>33,99%</t>
-  </si>
-  <si>
-    <t>32,18%</t>
-  </si>
-  <si>
-    <t>30,37%</t>
-  </si>
-  <si>
-    <t>34,4%</t>
-  </si>
-  <si>
-    <t>Menores que duermen las horas recomendadas en función de su edad en 2023 (Tasa respuesta: 99,43%)</t>
-  </si>
-  <si>
-    <t>28,17%</t>
-  </si>
-  <si>
-    <t>20,7%</t>
-  </si>
-  <si>
-    <t>37,83%</t>
-  </si>
-  <si>
-    <t>23,76%</t>
-  </si>
-  <si>
-    <t>32,96%</t>
-  </si>
-  <si>
-    <t>25,99%</t>
-  </si>
-  <si>
-    <t>20,26%</t>
-  </si>
-  <si>
-    <t>32,5%</t>
-  </si>
-  <si>
-    <t>71,83%</t>
-  </si>
-  <si>
-    <t>62,17%</t>
-  </si>
-  <si>
-    <t>79,3%</t>
-  </si>
-  <si>
-    <t>76,24%</t>
-  </si>
-  <si>
-    <t>67,04%</t>
-  </si>
-  <si>
-    <t>74,01%</t>
-  </si>
-  <si>
-    <t>67,5%</t>
-  </si>
-  <si>
-    <t>79,74%</t>
-  </si>
-  <si>
-    <t>65,18%</t>
-  </si>
-  <si>
-    <t>59,4%</t>
-  </si>
-  <si>
-    <t>71,1%</t>
-  </si>
-  <si>
-    <t>64,08%</t>
-  </si>
-  <si>
-    <t>58,07%</t>
-  </si>
-  <si>
-    <t>70,38%</t>
-  </si>
-  <si>
-    <t>64,66%</t>
-  </si>
-  <si>
-    <t>59,59%</t>
-  </si>
-  <si>
-    <t>34,82%</t>
-  </si>
-  <si>
-    <t>28,9%</t>
-  </si>
-  <si>
-    <t>40,6%</t>
-  </si>
-  <si>
-    <t>35,92%</t>
-  </si>
-  <si>
-    <t>29,62%</t>
-  </si>
-  <si>
-    <t>41,93%</t>
-  </si>
-  <si>
-    <t>35,34%</t>
-  </si>
-  <si>
-    <t>40,41%</t>
-  </si>
-  <si>
-    <t>70,45%</t>
-  </si>
-  <si>
-    <t>75,91%</t>
-  </si>
-  <si>
-    <t>76,91%</t>
-  </si>
-  <si>
-    <t>70,56%</t>
-  </si>
-  <si>
-    <t>81,91%</t>
-  </si>
-  <si>
-    <t>73,47%</t>
-  </si>
-  <si>
-    <t>69,1%</t>
-  </si>
-  <si>
-    <t>77,67%</t>
-  </si>
-  <si>
-    <t>29,55%</t>
-  </si>
-  <si>
-    <t>24,09%</t>
-  </si>
-  <si>
-    <t>23,09%</t>
-  </si>
-  <si>
-    <t>18,09%</t>
-  </si>
-  <si>
-    <t>29,44%</t>
-  </si>
-  <si>
-    <t>26,53%</t>
-  </si>
-  <si>
-    <t>22,33%</t>
-  </si>
-  <si>
-    <t>30,9%</t>
-  </si>
-  <si>
-    <t>81,16%</t>
-  </si>
-  <si>
-    <t>75,9%</t>
-  </si>
-  <si>
-    <t>85,67%</t>
-  </si>
-  <si>
-    <t>76,31%</t>
-  </si>
-  <si>
-    <t>85,07%</t>
-  </si>
-  <si>
-    <t>81,08%</t>
-  </si>
-  <si>
-    <t>77,7%</t>
-  </si>
-  <si>
-    <t>84,32%</t>
-  </si>
-  <si>
-    <t>18,84%</t>
-  </si>
-  <si>
-    <t>14,33%</t>
-  </si>
-  <si>
-    <t>24,1%</t>
-  </si>
-  <si>
-    <t>14,93%</t>
-  </si>
-  <si>
-    <t>23,69%</t>
-  </si>
-  <si>
-    <t>18,92%</t>
-  </si>
-  <si>
-    <t>15,68%</t>
-  </si>
-  <si>
-    <t>22,3%</t>
-  </si>
-  <si>
-    <t>70,03%</t>
-  </si>
-  <si>
-    <t>66,99%</t>
-  </si>
-  <si>
-    <t>73,4%</t>
-  </si>
-  <si>
-    <t>70,7%</t>
-  </si>
-  <si>
-    <t>67,87%</t>
-  </si>
-  <si>
-    <t>73,66%</t>
-  </si>
-  <si>
-    <t>68,13%</t>
-  </si>
-  <si>
-    <t>72,42%</t>
-  </si>
-  <si>
-    <t>29,97%</t>
-  </si>
-  <si>
-    <t>26,6%</t>
-  </si>
-  <si>
-    <t>33,01%</t>
-  </si>
-  <si>
-    <t>29,3%</t>
-  </si>
-  <si>
-    <t>26,34%</t>
-  </si>
-  <si>
-    <t>32,13%</t>
-  </si>
-  <si>
-    <t>27,58%</t>
-  </si>
-  <si>
-    <t>31,87%</t>
+    <t>35,78%</t>
+  </si>
+  <si>
+    <t>31,71%</t>
+  </si>
+  <si>
+    <t>40,58%</t>
+  </si>
+  <si>
+    <t>76,05%</t>
+  </si>
+  <si>
+    <t>81,02%</t>
+  </si>
+  <si>
+    <t>70,02%</t>
+  </si>
+  <si>
+    <t>63,91%</t>
+  </si>
+  <si>
+    <t>76,04%</t>
+  </si>
+  <si>
+    <t>72,74%</t>
+  </si>
+  <si>
+    <t>68,54%</t>
+  </si>
+  <si>
+    <t>76,86%</t>
+  </si>
+  <si>
+    <t>23,95%</t>
+  </si>
+  <si>
+    <t>18,98%</t>
+  </si>
+  <si>
+    <t>29,98%</t>
+  </si>
+  <si>
+    <t>23,96%</t>
+  </si>
+  <si>
+    <t>36,09%</t>
+  </si>
+  <si>
+    <t>27,26%</t>
+  </si>
+  <si>
+    <t>23,14%</t>
+  </si>
+  <si>
+    <t>31,46%</t>
+  </si>
+  <si>
+    <t>82,32%</t>
+  </si>
+  <si>
+    <t>77,3%</t>
+  </si>
+  <si>
+    <t>87,38%</t>
+  </si>
+  <si>
+    <t>81,29%</t>
+  </si>
+  <si>
+    <t>85,42%</t>
+  </si>
+  <si>
+    <t>81,77%</t>
+  </si>
+  <si>
+    <t>78,3%</t>
+  </si>
+  <si>
+    <t>85,45%</t>
+  </si>
+  <si>
+    <t>17,68%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>22,7%</t>
+  </si>
+  <si>
+    <t>18,71%</t>
+  </si>
+  <si>
+    <t>14,58%</t>
+  </si>
+  <si>
+    <t>18,23%</t>
+  </si>
+  <si>
+    <t>14,55%</t>
+  </si>
+  <si>
+    <t>21,7%</t>
+  </si>
+  <si>
+    <t>68,0%</t>
+  </si>
+  <si>
+    <t>75,21%</t>
+  </si>
+  <si>
+    <t>69,79%</t>
+  </si>
+  <si>
+    <t>66,64%</t>
+  </si>
+  <si>
+    <t>73,23%</t>
+  </si>
+  <si>
+    <t>70,43%</t>
+  </si>
+  <si>
+    <t>67,74%</t>
+  </si>
+  <si>
+    <t>72,85%</t>
+  </si>
+  <si>
+    <t>24,79%</t>
+  </si>
+  <si>
+    <t>32,0%</t>
+  </si>
+  <si>
+    <t>30,21%</t>
+  </si>
+  <si>
+    <t>26,77%</t>
+  </si>
+  <si>
+    <t>33,36%</t>
+  </si>
+  <si>
+    <t>29,57%</t>
+  </si>
+  <si>
+    <t>27,15%</t>
+  </si>
+  <si>
+    <t>32,26%</t>
   </si>
 </sst>
 </file>
@@ -1542,7 +1542,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DDE453D-9CBF-4744-82BC-B1438B4D2DDA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C636B13-3379-4077-B3ED-FB9A4C32EAD8}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1660,10 +1660,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="D4" s="7">
-        <v>60014</v>
+        <v>55466</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1675,10 +1675,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="I4" s="7">
-        <v>55466</v>
+        <v>60014</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1711,10 +1711,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="D5" s="7">
-        <v>59925</v>
+        <v>50257</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1726,10 +1726,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="I5" s="7">
-        <v>50257</v>
+        <v>59925</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1762,25 +1762,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>161</v>
+      </c>
+      <c r="D6" s="7">
+        <v>105723</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="7">
         <v>180</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>119939</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="7">
-        <v>161</v>
-      </c>
-      <c r="I6" s="7">
-        <v>105723</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1815,10 +1815,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>299</v>
+        <v>283</v>
       </c>
       <c r="D7" s="7">
-        <v>198824</v>
+        <v>190624</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1830,10 +1830,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>283</v>
+        <v>299</v>
       </c>
       <c r="I7" s="7">
-        <v>190624</v>
+        <v>198824</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1866,10 +1866,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="D8" s="7">
-        <v>54330</v>
+        <v>61207</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1881,10 +1881,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="I8" s="7">
-        <v>61207</v>
+        <v>54330</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1899,7 +1899,7 @@
         <v>176</v>
       </c>
       <c r="N8" s="7">
-        <v>115538</v>
+        <v>115537</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1917,25 +1917,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>377</v>
+      </c>
+      <c r="D9" s="7">
+        <v>251831</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="7">
         <v>381</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>253154</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" s="7">
-        <v>377</v>
-      </c>
-      <c r="I9" s="7">
-        <v>251831</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1950,7 +1950,7 @@
         <v>758</v>
       </c>
       <c r="N9" s="7">
-        <v>504986</v>
+        <v>504985</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1970,10 +1970,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="D10" s="7">
-        <v>104367</v>
+        <v>98755</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1985,10 +1985,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="I10" s="7">
-        <v>98755</v>
+        <v>104367</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -2021,10 +2021,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="D11" s="7">
-        <v>37148</v>
+        <v>26774</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -2036,10 +2036,10 @@
         <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="I11" s="7">
-        <v>26774</v>
+        <v>37148</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -2072,25 +2072,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>188</v>
+      </c>
+      <c r="D12" s="7">
+        <v>125529</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="7">
         <v>212</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>141515</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H12" s="7">
-        <v>188</v>
-      </c>
-      <c r="I12" s="7">
-        <v>125529</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -2125,34 +2125,34 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>255</v>
+        <v>223</v>
       </c>
       <c r="D13" s="7">
-        <v>169162</v>
+        <v>152327</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>70</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="H13" s="7">
+        <v>255</v>
+      </c>
+      <c r="I13" s="7">
+        <v>169162</v>
+      </c>
+      <c r="J13" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="H13" s="7">
-        <v>223</v>
-      </c>
-      <c r="I13" s="7">
-        <v>152327</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="K13" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>478</v>
@@ -2161,13 +2161,13 @@
         <v>321489</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2176,34 +2176,34 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
+        <v>60</v>
+      </c>
+      <c r="D14" s="7">
+        <v>39730</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" s="7">
         <v>53</v>
       </c>
-      <c r="D14" s="7">
+      <c r="I14" s="7">
         <v>35709</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="F14" s="7" t="s">
+      <c r="J14" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="H14" s="7">
-        <v>60</v>
-      </c>
-      <c r="I14" s="7">
-        <v>39730</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>113</v>
@@ -2212,13 +2212,13 @@
         <v>75439</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2227,25 +2227,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>283</v>
+      </c>
+      <c r="D15" s="7">
+        <v>192057</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
         <v>308</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>204871</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
-        <v>283</v>
-      </c>
-      <c r="I15" s="7">
-        <v>192057</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -2280,34 +2280,34 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>737</v>
+      </c>
+      <c r="D16" s="7">
+        <v>497172</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="H16" s="7">
         <v>798</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>532368</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="F16" s="7" t="s">
+      <c r="J16" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="H16" s="7">
-        <v>737</v>
-      </c>
-      <c r="I16" s="7">
-        <v>497172</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="M16" s="7">
         <v>1535</v>
@@ -2316,13 +2316,13 @@
         <v>1029540</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2331,34 +2331,34 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
+        <v>272</v>
+      </c>
+      <c r="D17" s="7">
+        <v>177969</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="H17" s="7">
         <v>283</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>187111</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="F17" s="7" t="s">
+      <c r="J17" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="H17" s="7">
-        <v>272</v>
-      </c>
-      <c r="I17" s="7">
-        <v>177969</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="M17" s="7">
         <v>555</v>
@@ -2367,13 +2367,13 @@
         <v>365080</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2382,25 +2382,25 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>1009</v>
+      </c>
+      <c r="D18" s="7">
+        <v>675141</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="7">
         <v>1081</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>719479</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H18" s="7">
-        <v>1009</v>
-      </c>
-      <c r="I18" s="7">
-        <v>675141</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -2429,7 +2429,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -2449,7 +2449,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A7837B3-FFE0-41A9-9CDF-9484DE3092EC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{702A956E-4E2D-47ED-B8D0-E034FDED6050}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2466,7 +2466,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2567,34 +2567,34 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
+        <v>103</v>
+      </c>
+      <c r="D4" s="7">
+        <v>70904</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="H4" s="7">
         <v>104</v>
       </c>
-      <c r="D4" s="7">
+      <c r="I4" s="7">
         <v>72864</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="F4" s="7" t="s">
+      <c r="J4" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="K4" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="H4" s="7">
-        <v>103</v>
-      </c>
-      <c r="I4" s="7">
-        <v>70904</v>
-      </c>
-      <c r="J4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="M4" s="7">
         <v>207</v>
@@ -2603,13 +2603,13 @@
         <v>143768</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2618,34 +2618,34 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
+        <v>116</v>
+      </c>
+      <c r="D5" s="7">
+        <v>75857</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="H5" s="7">
         <v>102</v>
       </c>
-      <c r="D5" s="7">
+      <c r="I5" s="7">
         <v>72458</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="F5" s="7" t="s">
+      <c r="J5" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="K5" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="H5" s="7">
-        <v>116</v>
-      </c>
-      <c r="I5" s="7">
-        <v>75857</v>
-      </c>
-      <c r="J5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="M5" s="7">
         <v>218</v>
@@ -2654,13 +2654,13 @@
         <v>148315</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2669,25 +2669,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>219</v>
+      </c>
+      <c r="D6" s="7">
+        <v>146761</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="7">
         <v>206</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>145322</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="7">
-        <v>219</v>
-      </c>
-      <c r="I6" s="7">
-        <v>146761</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -2722,34 +2722,34 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
+        <v>252</v>
+      </c>
+      <c r="D7" s="7">
+        <v>174836</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="H7" s="7">
         <v>272</v>
       </c>
-      <c r="D7" s="7">
+      <c r="I7" s="7">
         <v>197155</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="F7" s="7" t="s">
+      <c r="J7" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="K7" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="H7" s="7">
-        <v>252</v>
-      </c>
-      <c r="I7" s="7">
-        <v>174837</v>
-      </c>
-      <c r="J7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>131</v>
       </c>
       <c r="M7" s="7">
         <v>524</v>
@@ -2758,13 +2758,13 @@
         <v>371992</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2773,34 +2773,34 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
+        <v>87</v>
+      </c>
+      <c r="D8" s="7">
+        <v>60627</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="H8" s="7">
         <v>102</v>
       </c>
-      <c r="D8" s="7">
+      <c r="I8" s="7">
         <v>71836</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="F8" s="7" t="s">
+      <c r="J8" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="K8" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="H8" s="7">
-        <v>87</v>
-      </c>
-      <c r="I8" s="7">
-        <v>60627</v>
-      </c>
-      <c r="J8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>140</v>
       </c>
       <c r="M8" s="7">
         <v>189</v>
@@ -2809,13 +2809,13 @@
         <v>132463</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2824,25 +2824,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>339</v>
+      </c>
+      <c r="D9" s="7">
+        <v>235463</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="7">
         <v>374</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>268991</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" s="7">
-        <v>339</v>
-      </c>
-      <c r="I9" s="7">
-        <v>235464</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -2877,34 +2877,34 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>174</v>
+      </c>
+      <c r="D10" s="7">
+        <v>123108</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="H10" s="7">
         <v>169</v>
       </c>
-      <c r="D10" s="7">
+      <c r="I10" s="7">
         <v>118208</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="F10" s="7" t="s">
+      <c r="J10" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="K10" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="H10" s="7">
-        <v>174</v>
-      </c>
-      <c r="I10" s="7">
-        <v>123108</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>149</v>
       </c>
       <c r="M10" s="7">
         <v>343</v>
@@ -2913,13 +2913,13 @@
         <v>241316</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>150</v>
+        <v>91</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2928,34 +2928,34 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
+        <v>48</v>
+      </c>
+      <c r="D11" s="7">
+        <v>33260</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="H11" s="7">
         <v>59</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>40363</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="J11" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="K11" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="H11" s="7">
-        <v>48</v>
-      </c>
-      <c r="I11" s="7">
-        <v>33260</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>158</v>
       </c>
       <c r="M11" s="7">
         <v>107</v>
@@ -2964,13 +2964,13 @@
         <v>73623</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>159</v>
+        <v>99</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2979,25 +2979,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>222</v>
+      </c>
+      <c r="D12" s="7">
+        <v>156368</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="7">
         <v>228</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>158571</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H12" s="7">
-        <v>222</v>
-      </c>
-      <c r="I12" s="7">
-        <v>156368</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -3032,34 +3032,34 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
+        <v>202</v>
+      </c>
+      <c r="D13" s="7">
+        <v>142103</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="H13" s="7">
         <v>221</v>
       </c>
-      <c r="D13" s="7">
+      <c r="I13" s="7">
         <v>149728</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="J13" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="H13" s="7">
-        <v>202</v>
-      </c>
-      <c r="I13" s="7">
-        <v>142103</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>167</v>
       </c>
       <c r="M13" s="7">
         <v>423</v>
@@ -3068,13 +3068,13 @@
         <v>291831</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>169</v>
+        <v>59</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>72</v>
+        <v>165</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3083,34 +3083,34 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
+        <v>41</v>
+      </c>
+      <c r="D14" s="7">
+        <v>29234</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="H14" s="7">
         <v>43</v>
       </c>
-      <c r="D14" s="7">
+      <c r="I14" s="7">
         <v>29559</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="J14" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="H14" s="7">
-        <v>41</v>
-      </c>
-      <c r="I14" s="7">
-        <v>29234</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>175</v>
       </c>
       <c r="M14" s="7">
         <v>84</v>
@@ -3119,13 +3119,13 @@
         <v>58793</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>80</v>
+        <v>173</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>177</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3134,25 +3134,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>243</v>
+      </c>
+      <c r="D15" s="7">
+        <v>171337</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
         <v>264</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>179287</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
-        <v>243</v>
-      </c>
-      <c r="I15" s="7">
-        <v>171337</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -3187,34 +3187,34 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>731</v>
+      </c>
+      <c r="D16" s="7">
+        <v>510951</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="H16" s="7">
         <v>766</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>537955</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="J16" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="H16" s="7">
-        <v>731</v>
-      </c>
-      <c r="I16" s="7">
-        <v>510951</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>183</v>
       </c>
       <c r="M16" s="7">
         <v>1497</v>
@@ -3223,13 +3223,13 @@
         <v>1048906</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3238,34 +3238,34 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
+        <v>292</v>
+      </c>
+      <c r="D17" s="7">
+        <v>198978</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="H17" s="7">
         <v>306</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>214216</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="H17" s="7">
-        <v>292</v>
-      </c>
-      <c r="I17" s="7">
-        <v>198978</v>
-      </c>
       <c r="J17" s="7" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="M17" s="7">
         <v>598</v>
@@ -3274,13 +3274,13 @@
         <v>413194</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3289,25 +3289,25 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>1023</v>
+      </c>
+      <c r="D18" s="7">
+        <v>709929</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="7">
         <v>1072</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>752171</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H18" s="7">
-        <v>1023</v>
-      </c>
-      <c r="I18" s="7">
-        <v>709929</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -3336,7 +3336,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -3356,7 +3356,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9483FCA1-6152-43BC-BDBC-31CE0266E13C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A5935DD-FB11-4803-A4D2-4F61AD8C7BDF}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3373,7 +3373,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3474,34 +3474,34 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
+        <v>99</v>
+      </c>
+      <c r="D4" s="7">
+        <v>62608</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="H4" s="7">
         <v>82</v>
       </c>
-      <c r="D4" s="7">
+      <c r="I4" s="7">
         <v>56425</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="H4" s="7">
-        <v>99</v>
-      </c>
-      <c r="I4" s="7">
-        <v>62608</v>
-      </c>
       <c r="J4" s="7" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="M4" s="7">
         <v>181</v>
@@ -3510,13 +3510,13 @@
         <v>119033</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3525,34 +3525,34 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
+        <v>108</v>
+      </c>
+      <c r="D5" s="7">
+        <v>66759</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="H5" s="7">
         <v>104</v>
       </c>
-      <c r="D5" s="7">
+      <c r="I5" s="7">
         <v>67206</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="H5" s="7">
-        <v>108</v>
-      </c>
-      <c r="I5" s="7">
-        <v>66759</v>
-      </c>
       <c r="J5" s="7" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="M5" s="7">
         <v>212</v>
@@ -3561,13 +3561,13 @@
         <v>133966</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3576,25 +3576,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>207</v>
+      </c>
+      <c r="D6" s="7">
+        <v>129367</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="7">
         <v>186</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>123631</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="7">
-        <v>207</v>
-      </c>
-      <c r="I6" s="7">
-        <v>129367</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3629,34 +3629,34 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
+        <v>220</v>
+      </c>
+      <c r="D7" s="7">
+        <v>140167</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="H7" s="7">
         <v>235</v>
       </c>
-      <c r="D7" s="7">
+      <c r="I7" s="7">
         <v>157198</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="H7" s="7">
-        <v>220</v>
-      </c>
-      <c r="I7" s="7">
-        <v>140167</v>
-      </c>
       <c r="J7" s="7" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="M7" s="7">
         <v>455</v>
@@ -3665,13 +3665,13 @@
         <v>297364</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3680,34 +3680,34 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
+        <v>108</v>
+      </c>
+      <c r="D8" s="7">
+        <v>68043</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="H8" s="7">
         <v>144</v>
       </c>
-      <c r="D8" s="7">
+      <c r="I8" s="7">
         <v>100237</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="H8" s="7">
-        <v>108</v>
-      </c>
-      <c r="I8" s="7">
-        <v>68043</v>
-      </c>
       <c r="J8" s="7" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="M8" s="7">
         <v>252</v>
@@ -3716,13 +3716,13 @@
         <v>168281</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3731,25 +3731,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>328</v>
+      </c>
+      <c r="D9" s="7">
+        <v>208210</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="7">
         <v>379</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>257435</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" s="7">
-        <v>328</v>
-      </c>
-      <c r="I9" s="7">
-        <v>208210</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3784,34 +3784,34 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>197</v>
+      </c>
+      <c r="D10" s="7">
+        <v>136738</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="H10" s="7">
         <v>192</v>
       </c>
-      <c r="D10" s="7">
+      <c r="I10" s="7">
         <v>137972</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="H10" s="7">
-        <v>197</v>
-      </c>
-      <c r="I10" s="7">
-        <v>136738</v>
-      </c>
       <c r="J10" s="7" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="M10" s="7">
         <v>389</v>
@@ -3820,13 +3820,13 @@
         <v>274710</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3835,34 +3835,34 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
+        <v>75</v>
+      </c>
+      <c r="D11" s="7">
+        <v>52161</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="H11" s="7">
         <v>68</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>48754</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="F11" s="7" t="s">
+      <c r="J11" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>241</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="H11" s="7">
-        <v>75</v>
-      </c>
-      <c r="I11" s="7">
-        <v>52161</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>245</v>
       </c>
       <c r="M11" s="7">
         <v>143</v>
@@ -3871,13 +3871,13 @@
         <v>100916</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3886,25 +3886,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>272</v>
+      </c>
+      <c r="D12" s="7">
+        <v>188899</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="7">
         <v>260</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>186726</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H12" s="7">
-        <v>272</v>
-      </c>
-      <c r="I12" s="7">
-        <v>188899</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -3939,34 +3939,34 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
+        <v>200</v>
+      </c>
+      <c r="D13" s="7">
+        <v>141082</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="H13" s="7">
         <v>193</v>
       </c>
-      <c r="D13" s="7">
+      <c r="I13" s="7">
         <v>142681</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="J13" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>250</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="H13" s="7">
-        <v>200</v>
-      </c>
-      <c r="I13" s="7">
-        <v>141082</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>254</v>
       </c>
       <c r="M13" s="7">
         <v>393</v>
@@ -3975,13 +3975,13 @@
         <v>283763</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>163</v>
+        <v>252</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3990,34 +3990,34 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
+        <v>45</v>
+      </c>
+      <c r="D14" s="7">
+        <v>31695</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="H14" s="7">
         <v>37</v>
       </c>
-      <c r="D14" s="7">
+      <c r="I14" s="7">
         <v>27768</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="J14" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>259</v>
-      </c>
-      <c r="H14" s="7">
-        <v>45</v>
-      </c>
-      <c r="I14" s="7">
-        <v>31695</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>262</v>
       </c>
       <c r="M14" s="7">
         <v>82</v>
@@ -4026,13 +4026,13 @@
         <v>59463</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>172</v>
+        <v>262</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4041,25 +4041,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>245</v>
+      </c>
+      <c r="D15" s="7">
+        <v>172777</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
         <v>230</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>170449</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
-        <v>245</v>
-      </c>
-      <c r="I15" s="7">
-        <v>172777</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4094,34 +4094,34 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>716</v>
+      </c>
+      <c r="D16" s="7">
+        <v>480594</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="H16" s="7">
         <v>702</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>494276</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="J16" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>267</v>
-      </c>
-      <c r="H16" s="7">
-        <v>716</v>
-      </c>
-      <c r="I16" s="7">
-        <v>480594</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>270</v>
       </c>
       <c r="M16" s="7">
         <v>1418</v>
@@ -4130,13 +4130,13 @@
         <v>974870</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4145,34 +4145,34 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
+        <v>336</v>
+      </c>
+      <c r="D17" s="7">
+        <v>218659</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="H17" s="7">
         <v>353</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>243966</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="J17" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>275</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="H17" s="7">
-        <v>336</v>
-      </c>
-      <c r="I17" s="7">
-        <v>218659</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>279</v>
       </c>
       <c r="M17" s="7">
         <v>689</v>
@@ -4181,13 +4181,13 @@
         <v>462625</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4196,25 +4196,25 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>1052</v>
+      </c>
+      <c r="D18" s="7">
+        <v>699253</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="7">
         <v>1055</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>738242</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H18" s="7">
-        <v>1052</v>
-      </c>
-      <c r="I18" s="7">
-        <v>699253</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -4243,7 +4243,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -4263,7 +4263,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1776BBDB-F874-4237-B609-70BE2D154F0D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24765B4A-116F-4AD6-9F51-413E47093B07}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4280,7 +4280,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4381,49 +4381,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
+        <v>28</v>
+      </c>
+      <c r="D4" s="7">
+        <v>13334</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="H4" s="7">
         <v>34</v>
       </c>
-      <c r="D4" s="7">
-        <v>16481</v>
-      </c>
-      <c r="E4" s="7" t="s">
+      <c r="I4" s="7">
+        <v>17239</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>284</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>285</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="H4" s="7">
-        <v>28</v>
-      </c>
-      <c r="I4" s="7">
-        <v>13525</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>288</v>
       </c>
       <c r="M4" s="7">
         <v>62</v>
       </c>
       <c r="N4" s="7">
-        <v>30006</v>
+        <v>30574</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4432,49 +4432,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
+        <v>80</v>
+      </c>
+      <c r="D5" s="7">
+        <v>43732</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="H5" s="7">
         <v>82</v>
       </c>
-      <c r="D5" s="7">
-        <v>42022</v>
-      </c>
-      <c r="E5" s="7" t="s">
+      <c r="I5" s="7">
+        <v>44205</v>
+      </c>
+      <c r="J5" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="K5" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>294</v>
-      </c>
-      <c r="H5" s="7">
-        <v>80</v>
-      </c>
-      <c r="I5" s="7">
-        <v>43406</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M5" s="7">
         <v>162</v>
       </c>
       <c r="N5" s="7">
-        <v>85428</v>
+        <v>87936</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>297</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4483,25 +4483,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>108</v>
+      </c>
+      <c r="D6" s="7">
+        <v>57066</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="7">
         <v>116</v>
       </c>
-      <c r="D6" s="7">
-        <v>58503</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="7">
-        <v>108</v>
-      </c>
       <c r="I6" s="7">
-        <v>56931</v>
+        <v>61444</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -4516,7 +4516,7 @@
         <v>224</v>
       </c>
       <c r="N6" s="7">
-        <v>115434</v>
+        <v>118510</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -4536,49 +4536,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
+        <v>158</v>
+      </c>
+      <c r="D7" s="7">
+        <v>102084</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="H7" s="7">
         <v>173</v>
       </c>
-      <c r="D7" s="7">
-        <v>114253</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="F7" s="7" t="s">
+      <c r="I7" s="7">
+        <v>117454</v>
+      </c>
+      <c r="J7" s="7" t="s">
         <v>301</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="K7" s="7" t="s">
         <v>302</v>
       </c>
-      <c r="H7" s="7">
-        <v>158</v>
-      </c>
-      <c r="I7" s="7">
-        <v>101739</v>
-      </c>
-      <c r="J7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>303</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>305</v>
       </c>
       <c r="M7" s="7">
         <v>331</v>
       </c>
       <c r="N7" s="7">
-        <v>215992</v>
+        <v>219538</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>306</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4587,46 +4587,46 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
+        <v>100</v>
+      </c>
+      <c r="D8" s="7">
+        <v>57215</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="H8" s="7">
         <v>103</v>
       </c>
-      <c r="D8" s="7">
-        <v>61046</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="G8" s="7" t="s">
+      <c r="I8" s="7">
+        <v>65100</v>
+      </c>
+      <c r="J8" s="7" t="s">
         <v>310</v>
       </c>
-      <c r="H8" s="7">
-        <v>100</v>
-      </c>
-      <c r="I8" s="7">
-        <v>57026</v>
-      </c>
-      <c r="J8" s="7" t="s">
+      <c r="K8" s="7" t="s">
         <v>311</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>312</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>313</v>
       </c>
       <c r="M8" s="7">
         <v>203</v>
       </c>
       <c r="N8" s="7">
-        <v>118071</v>
+        <v>122315</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>314</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>315</v>
@@ -4638,25 +4638,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>258</v>
+      </c>
+      <c r="D9" s="7">
+        <v>159299</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="7">
         <v>276</v>
       </c>
-      <c r="D9" s="7">
-        <v>175299</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" s="7">
-        <v>258</v>
-      </c>
       <c r="I9" s="7">
-        <v>158765</v>
+        <v>182554</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -4671,7 +4671,7 @@
         <v>534</v>
       </c>
       <c r="N9" s="7">
-        <v>334063</v>
+        <v>341853</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -4691,25 +4691,25 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="D10" s="7">
-        <v>141656</v>
+        <v>131626</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>316</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>303</v>
+        <v>174</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>317</v>
       </c>
       <c r="H10" s="7">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="I10" s="7">
-        <v>135453</v>
+        <v>147672</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>318</v>
@@ -4724,7 +4724,7 @@
         <v>346</v>
       </c>
       <c r="N10" s="7">
-        <v>277109</v>
+        <v>279298</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>321</v>
@@ -4742,10 +4742,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="D11" s="7">
-        <v>59419</v>
+        <v>41446</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>324</v>
@@ -4754,13 +4754,13 @@
         <v>325</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>311</v>
+        <v>183</v>
       </c>
       <c r="H11" s="7">
-        <v>54</v>
+        <v>75</v>
       </c>
       <c r="I11" s="7">
-        <v>40660</v>
+        <v>63217</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>326</v>
@@ -4775,7 +4775,7 @@
         <v>129</v>
       </c>
       <c r="N11" s="7">
-        <v>100079</v>
+        <v>104664</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>329</v>
@@ -4793,25 +4793,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>233</v>
+      </c>
+      <c r="D12" s="7">
+        <v>173072</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="7">
         <v>242</v>
       </c>
-      <c r="D12" s="7">
-        <v>201075</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H12" s="7">
-        <v>233</v>
-      </c>
       <c r="I12" s="7">
-        <v>176113</v>
+        <v>210889</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4826,7 +4826,7 @@
         <v>475</v>
       </c>
       <c r="N12" s="7">
-        <v>377188</v>
+        <v>383962</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -4846,10 +4846,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>278</v>
+        <v>265</v>
       </c>
       <c r="D13" s="7">
-        <v>234595</v>
+        <v>222441</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>332</v>
@@ -4861,16 +4861,16 @@
         <v>334</v>
       </c>
       <c r="H13" s="7">
-        <v>265</v>
+        <v>278</v>
       </c>
       <c r="I13" s="7">
-        <v>206962</v>
+        <v>248007</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>76</v>
+        <v>335</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>335</v>
+        <v>94</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>336</v>
@@ -4879,7 +4879,7 @@
         <v>543</v>
       </c>
       <c r="N13" s="7">
-        <v>441557</v>
+        <v>470448</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>337</v>
@@ -4897,10 +4897,10 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="D14" s="7">
-        <v>54441</v>
+        <v>47780</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>340</v>
@@ -4912,25 +4912,25 @@
         <v>342</v>
       </c>
       <c r="H14" s="7">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="I14" s="7">
-        <v>48567</v>
+        <v>57080</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>85</v>
+        <v>343</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>344</v>
+        <v>102</v>
       </c>
       <c r="M14" s="7">
         <v>133</v>
       </c>
       <c r="N14" s="7">
-        <v>103008</v>
+        <v>104860</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>345</v>
@@ -4948,25 +4948,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>335</v>
+      </c>
+      <c r="D15" s="7">
+        <v>270221</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
         <v>341</v>
       </c>
-      <c r="D15" s="7">
-        <v>289036</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
-        <v>335</v>
-      </c>
       <c r="I15" s="7">
-        <v>255529</v>
+        <v>305087</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4981,7 +4981,7 @@
         <v>676</v>
       </c>
       <c r="N15" s="7">
-        <v>544565</v>
+        <v>575308</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -5001,43 +5001,43 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>630</v>
+      </c>
+      <c r="D16" s="7">
+        <v>469486</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="H16" s="7">
         <v>652</v>
       </c>
-      <c r="D16" s="7">
-        <v>506986</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>348</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>349</v>
-      </c>
-      <c r="G16" s="7" t="s">
+      <c r="I16" s="7">
+        <v>530373</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>350</v>
       </c>
-      <c r="H16" s="7">
-        <v>630</v>
-      </c>
-      <c r="I16" s="7">
-        <v>457678</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>351</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>352</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>353</v>
       </c>
       <c r="M16" s="7">
         <v>1282</v>
       </c>
       <c r="N16" s="7">
-        <v>964664</v>
+        <v>999859</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>133</v>
+        <v>353</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>354</v>
@@ -5052,43 +5052,43 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
+        <v>304</v>
+      </c>
+      <c r="D17" s="7">
+        <v>190173</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="H17" s="7">
         <v>323</v>
       </c>
-      <c r="D17" s="7">
-        <v>216927</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>356</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>357</v>
-      </c>
-      <c r="G17" s="7" t="s">
+      <c r="I17" s="7">
+        <v>229602</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>358</v>
       </c>
-      <c r="H17" s="7">
-        <v>304</v>
-      </c>
-      <c r="I17" s="7">
-        <v>189660</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>359</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>360</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>361</v>
       </c>
       <c r="M17" s="7">
         <v>627</v>
       </c>
       <c r="N17" s="7">
-        <v>406587</v>
+        <v>419775</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>143</v>
+        <v>361</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>362</v>
@@ -5103,25 +5103,25 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>934</v>
+      </c>
+      <c r="D18" s="7">
+        <v>659659</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="7">
         <v>975</v>
       </c>
-      <c r="D18" s="7">
-        <v>723913</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H18" s="7">
-        <v>934</v>
-      </c>
       <c r="I18" s="7">
-        <v>647338</v>
+        <v>759975</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -5136,7 +5136,7 @@
         <v>1909</v>
       </c>
       <c r="N18" s="7">
-        <v>1371251</v>
+        <v>1419634</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -5150,7 +5150,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
